--- a/测试单-电子书_txt-word_161010.xlsx
+++ b/测试单-电子书_txt-word_161010.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784" activeTab="1"/>
@@ -16,14 +16,14 @@
     <sheet name="背景音乐音频格式" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$P$212</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$P$217</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="587">
   <si>
     <t>编号</t>
   </si>
@@ -443,10 +443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>用</t>
     </r>
@@ -1119,10 +1115,6 @@
   </si>
   <si>
     <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2701,10 +2693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加书签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2941,10 +2929,6 @@
   </si>
   <si>
     <t>自动到尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5090,14 +5074,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没处理连续空格的情况。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>滚动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5479,6 +5455,58 @@
   </si>
   <si>
     <t>逐句时“www.baidu.com”中间的“.”目前都读成“句号”。英文符号发音不妥。=》数据待review。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照10月8日晚上讨论的规格，按2键只提示“已经到开头”，不自动从头朗读。按【5】或者【OK】键才从头朗读。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改布局文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加两个字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前音频格式支持完全一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据10月8日晚讨论的规划修改。不自动开始读，按【5】和【OK】可以恢复。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除重复引起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加重复但不区分文件和文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加两个参数进行判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有复现，放到二级和三级目录可以显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7533,17 +7561,7 @@
     <cellStyle name="常规 3 7" xfId="16"/>
     <cellStyle name="常规 6" xfId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -7875,16 +7893,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="165" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="161" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="162" t="s">
         <v>134</v>
-      </c>
-      <c r="F2" s="162" t="s">
-        <v>135</v>
       </c>
       <c r="G2" s="158"/>
     </row>
@@ -7897,13 +7915,13 @@
         <v>42623</v>
       </c>
       <c r="D3" s="159" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="152">
         <v>42616</v>
       </c>
       <c r="F3" s="194" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G3" s="142"/>
     </row>
@@ -7916,13 +7934,13 @@
         <v>42627</v>
       </c>
       <c r="D4" s="159" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="170">
         <v>42625</v>
       </c>
       <c r="F4" s="215" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G4" s="142"/>
     </row>
@@ -7934,13 +7952,13 @@
         <v>42630</v>
       </c>
       <c r="D5" s="159" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="170">
         <v>42625</v>
       </c>
       <c r="F5" s="215" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="235" customFormat="1">
@@ -7951,13 +7969,13 @@
         <v>42633</v>
       </c>
       <c r="D6" s="216" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="211">
         <v>42632</v>
       </c>
       <c r="F6" s="215" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="195" customFormat="1">
@@ -7968,13 +7986,13 @@
         <v>42636</v>
       </c>
       <c r="D7" s="216" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="211">
         <v>42634</v>
       </c>
       <c r="F7" s="338" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="259" customFormat="1">
@@ -7986,13 +8004,13 @@
         <v>42638</v>
       </c>
       <c r="D8" s="340" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E8" s="336">
         <v>42634</v>
       </c>
       <c r="F8" s="338" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G8" s="335"/>
     </row>
@@ -8007,7 +8025,7 @@
         <v>42640</v>
       </c>
       <c r="F9" s="344" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G9" s="335"/>
     </row>
@@ -8020,13 +8038,13 @@
         <v>42645</v>
       </c>
       <c r="D10" s="340" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="336">
         <v>42643</v>
       </c>
       <c r="F10" s="338" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G10" s="335"/>
     </row>
@@ -8038,13 +8056,13 @@
         <v>42649</v>
       </c>
       <c r="D11" s="340" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="336">
         <v>42643</v>
       </c>
       <c r="F11" s="338" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="335" customFormat="1">
@@ -8055,13 +8073,13 @@
         <v>42653</v>
       </c>
       <c r="D12" s="340" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="336">
         <v>42651</v>
       </c>
       <c r="F12" s="338" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8094,10 +8112,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="G217" sqref="G217"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K136" sqref="K136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8137,7 +8156,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="187" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -8170,7 +8189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="280" customFormat="1" ht="81">
+    <row r="3" spans="1:16" s="280" customFormat="1" ht="81" hidden="1">
       <c r="A3" s="272">
         <v>1</v>
       </c>
@@ -8187,16 +8206,16 @@
         <v>42555</v>
       </c>
       <c r="F3" s="302" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G3" s="276" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H3" s="277" t="s">
         <v>47</v>
       </c>
       <c r="I3" s="273" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="J3" s="278"/>
       <c r="K3" s="274">
@@ -8207,14 +8226,14 @@
       </c>
       <c r="M3" s="277"/>
       <c r="N3" s="277" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O3" s="274">
         <v>42641</v>
       </c>
       <c r="P3" s="279"/>
     </row>
-    <row r="4" spans="1:16" s="72" customFormat="1" ht="81">
+    <row r="4" spans="1:16" s="72" customFormat="1" ht="81" hidden="1">
       <c r="A4" s="299">
         <v>2</v>
       </c>
@@ -8252,7 +8271,7 @@
       </c>
       <c r="P4" s="177"/>
     </row>
-    <row r="5" spans="1:16" s="72" customFormat="1" ht="54">
+    <row r="5" spans="1:16" s="72" customFormat="1" ht="54" hidden="1">
       <c r="A5" s="299">
         <v>3</v>
       </c>
@@ -8292,7 +8311,7 @@
       </c>
       <c r="P5" s="177"/>
     </row>
-    <row r="6" spans="1:16" s="178" customFormat="1" ht="54">
+    <row r="6" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
       <c r="A6" s="299">
         <v>4</v>
       </c>
@@ -8309,32 +8328,32 @@
         <v>42555</v>
       </c>
       <c r="F6" s="191" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G6" s="179" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H6" s="176"/>
       <c r="I6" s="172" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J6" s="131"/>
       <c r="K6" s="173">
         <v>42634</v>
       </c>
       <c r="L6" s="172" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M6" s="176"/>
       <c r="N6" s="176" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O6" s="173">
         <v>42631</v>
       </c>
       <c r="P6" s="177"/>
     </row>
-    <row r="7" spans="1:16" s="289" customFormat="1" ht="27">
+    <row r="7" spans="1:16" s="289" customFormat="1" ht="27" hidden="1">
       <c r="A7" s="299">
         <v>5</v>
       </c>
@@ -8351,14 +8370,14 @@
         <v>42555</v>
       </c>
       <c r="F7" s="301" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G7" s="286" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H7" s="287"/>
       <c r="I7" s="283" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J7" s="288"/>
       <c r="K7" s="284">
@@ -8374,7 +8393,7 @@
       </c>
       <c r="P7" s="292"/>
     </row>
-    <row r="8" spans="1:16" s="72" customFormat="1" ht="27">
+    <row r="8" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
       <c r="A8" s="299">
         <v>6</v>
       </c>
@@ -8414,7 +8433,7 @@
       </c>
       <c r="P8" s="177"/>
     </row>
-    <row r="9" spans="1:16" s="72" customFormat="1" ht="40.5">
+    <row r="9" spans="1:16" s="72" customFormat="1" ht="40.5" hidden="1">
       <c r="A9" s="299">
         <v>7</v>
       </c>
@@ -8467,10 +8486,10 @@
         <v>42555</v>
       </c>
       <c r="F10" s="190" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G10" s="290" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H10" s="200" t="s">
         <v>47</v>
@@ -8484,7 +8503,7 @@
       <c r="O10" s="34"/>
       <c r="P10" s="240"/>
     </row>
-    <row r="11" spans="1:16" s="97" customFormat="1" ht="40.5">
+    <row r="11" spans="1:16" s="97" customFormat="1" ht="40.5" hidden="1">
       <c r="A11" s="299">
         <v>9</v>
       </c>
@@ -8522,7 +8541,7 @@
       <c r="O11" s="91"/>
       <c r="P11" s="96"/>
     </row>
-    <row r="12" spans="1:16" s="72" customFormat="1" ht="40.5">
+    <row r="12" spans="1:16" s="72" customFormat="1" ht="40.5" hidden="1">
       <c r="A12" s="299">
         <v>10</v>
       </c>
@@ -8558,7 +8577,7 @@
       <c r="O12" s="173"/>
       <c r="P12" s="177"/>
     </row>
-    <row r="13" spans="1:16" s="72" customFormat="1" ht="27">
+    <row r="13" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
       <c r="A13" s="299">
         <v>11</v>
       </c>
@@ -8594,7 +8613,7 @@
       <c r="O13" s="173"/>
       <c r="P13" s="177"/>
     </row>
-    <row r="14" spans="1:16" s="289" customFormat="1" ht="81">
+    <row r="14" spans="1:16" s="289" customFormat="1" ht="81" hidden="1">
       <c r="A14" s="299">
         <v>12</v>
       </c>
@@ -8612,7 +8631,7 @@
       </c>
       <c r="F14" s="301"/>
       <c r="G14" s="286" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H14" s="287"/>
       <c r="I14" s="283" t="s">
@@ -8632,7 +8651,7 @@
       </c>
       <c r="P14" s="292"/>
     </row>
-    <row r="15" spans="1:16" s="289" customFormat="1" ht="67.5">
+    <row r="15" spans="1:16" s="289" customFormat="1" ht="67.5" hidden="1">
       <c r="A15" s="299">
         <v>13</v>
       </c>
@@ -8650,7 +8669,7 @@
       </c>
       <c r="F15" s="301"/>
       <c r="G15" s="286" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H15" s="287"/>
       <c r="I15" s="283" t="s">
@@ -8670,7 +8689,7 @@
       </c>
       <c r="P15" s="292"/>
     </row>
-    <row r="16" spans="1:16" s="289" customFormat="1" ht="27">
+    <row r="16" spans="1:16" s="289" customFormat="1" ht="27" hidden="1">
       <c r="A16" s="299">
         <v>14</v>
       </c>
@@ -8688,7 +8707,7 @@
       </c>
       <c r="F16" s="301"/>
       <c r="G16" s="286" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H16" s="287"/>
       <c r="I16" s="283" t="s">
@@ -8708,7 +8727,7 @@
       </c>
       <c r="P16" s="292"/>
     </row>
-    <row r="17" spans="1:16" s="289" customFormat="1" ht="40.5">
+    <row r="17" spans="1:16" s="289" customFormat="1" ht="40.5" hidden="1">
       <c r="A17" s="299">
         <v>15</v>
       </c>
@@ -8726,7 +8745,7 @@
       </c>
       <c r="F17" s="301"/>
       <c r="G17" s="286" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H17" s="287"/>
       <c r="I17" s="283" t="s">
@@ -8746,7 +8765,7 @@
       </c>
       <c r="P17" s="292"/>
     </row>
-    <row r="18" spans="1:16" s="178" customFormat="1" ht="54">
+    <row r="18" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
       <c r="A18" s="299">
         <v>16</v>
       </c>
@@ -8764,29 +8783,29 @@
       </c>
       <c r="F18" s="191"/>
       <c r="G18" s="175" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H18" s="176"/>
       <c r="I18" s="172" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J18" s="131"/>
       <c r="K18" s="173">
         <v>42632</v>
       </c>
       <c r="L18" s="180" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M18" s="167"/>
       <c r="N18" s="167" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O18" s="134">
         <v>42632</v>
       </c>
       <c r="P18" s="168"/>
     </row>
-    <row r="19" spans="1:16" ht="229.5">
+    <row r="19" spans="1:16" ht="229.5" hidden="1">
       <c r="A19" s="299">
         <v>17</v>
       </c>
@@ -8803,24 +8822,26 @@
         <v>42555</v>
       </c>
       <c r="F19" s="190" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G19" s="199" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H19" s="200"/>
-      <c r="I19" s="200" t="s">
-        <v>343</v>
-      </c>
+      <c r="I19" s="200"/>
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
-      <c r="L19" s="200"/>
-      <c r="M19" s="200"/>
-      <c r="N19" s="200"/>
-      <c r="O19" s="34"/>
+      <c r="L19" s="268" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="268"/>
+      <c r="N19" s="268"/>
+      <c r="O19" s="34">
+        <v>42652</v>
+      </c>
       <c r="P19" s="240"/>
     </row>
-    <row r="20" spans="1:16" ht="67.5">
+    <row r="20" spans="1:16" ht="67.5" hidden="1">
       <c r="A20" s="299">
         <v>18</v>
       </c>
@@ -8837,24 +8858,26 @@
         <v>42555</v>
       </c>
       <c r="F20" s="190" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G20" s="199" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H20" s="200"/>
-      <c r="I20" s="200" t="s">
-        <v>328</v>
-      </c>
+      <c r="I20" s="200"/>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
-      <c r="L20" s="200"/>
-      <c r="M20" s="200"/>
-      <c r="N20" s="200"/>
-      <c r="O20" s="34"/>
+      <c r="L20" s="268" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="268"/>
+      <c r="N20" s="268"/>
+      <c r="O20" s="34">
+        <v>42652</v>
+      </c>
       <c r="P20" s="240"/>
     </row>
-    <row r="21" spans="1:16" ht="189">
+    <row r="21" spans="1:16" ht="189" hidden="1">
       <c r="A21" s="299">
         <v>19</v>
       </c>
@@ -8871,24 +8894,26 @@
         <v>42555</v>
       </c>
       <c r="F21" s="190" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G21" s="199" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H21" s="200"/>
-      <c r="I21" s="200" t="s">
-        <v>328</v>
-      </c>
+      <c r="I21" s="200"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
-      <c r="L21" s="200"/>
-      <c r="M21" s="200"/>
-      <c r="N21" s="200"/>
-      <c r="O21" s="34"/>
+      <c r="L21" s="268" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="268"/>
+      <c r="N21" s="268"/>
+      <c r="O21" s="34">
+        <v>42652</v>
+      </c>
       <c r="P21" s="240"/>
     </row>
-    <row r="22" spans="1:16" s="178" customFormat="1" ht="81">
+    <row r="22" spans="1:16" s="178" customFormat="1" ht="81" hidden="1">
       <c r="A22" s="299">
         <v>20</v>
       </c>
@@ -8906,7 +8931,7 @@
       </c>
       <c r="F22" s="191"/>
       <c r="G22" s="175" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H22" s="176"/>
       <c r="I22" s="172" t="s">
@@ -8926,7 +8951,7 @@
       </c>
       <c r="P22" s="168"/>
     </row>
-    <row r="23" spans="1:16" s="178" customFormat="1" ht="108">
+    <row r="23" spans="1:16" s="178" customFormat="1" ht="108" hidden="1">
       <c r="A23" s="299">
         <v>21</v>
       </c>
@@ -8944,11 +8969,11 @@
       </c>
       <c r="F23" s="191"/>
       <c r="G23" s="175" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H23" s="176"/>
       <c r="I23" s="172" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J23" s="131"/>
       <c r="K23" s="173">
@@ -8964,7 +8989,7 @@
       </c>
       <c r="P23" s="177"/>
     </row>
-    <row r="24" spans="1:16" s="178" customFormat="1" ht="40.5">
+    <row r="24" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
       <c r="A24" s="299">
         <v>22</v>
       </c>
@@ -8982,11 +9007,11 @@
       </c>
       <c r="F24" s="191"/>
       <c r="G24" s="175" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H24" s="176"/>
       <c r="I24" s="172" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J24" s="131"/>
       <c r="K24" s="173">
@@ -9002,7 +9027,7 @@
       </c>
       <c r="P24" s="177"/>
     </row>
-    <row r="25" spans="1:16" s="178" customFormat="1" ht="40.5">
+    <row r="25" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
       <c r="A25" s="299">
         <v>23</v>
       </c>
@@ -9020,11 +9045,11 @@
       </c>
       <c r="F25" s="191"/>
       <c r="G25" s="175" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H25" s="176"/>
       <c r="I25" s="172" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J25" s="131"/>
       <c r="K25" s="173">
@@ -9035,14 +9060,14 @@
       </c>
       <c r="M25" s="167"/>
       <c r="N25" s="167" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O25" s="134">
         <v>42631</v>
       </c>
       <c r="P25" s="168"/>
     </row>
-    <row r="26" spans="1:16" s="72" customFormat="1" ht="54">
+    <row r="26" spans="1:16" s="72" customFormat="1" ht="54" hidden="1">
       <c r="A26" s="299">
         <v>24</v>
       </c>
@@ -9076,7 +9101,7 @@
       <c r="O26" s="173"/>
       <c r="P26" s="177"/>
     </row>
-    <row r="27" spans="1:16" s="289" customFormat="1" ht="135">
+    <row r="27" spans="1:16" s="289" customFormat="1" ht="135" hidden="1">
       <c r="A27" s="299">
         <v>25</v>
       </c>
@@ -9093,10 +9118,10 @@
         <v>42555</v>
       </c>
       <c r="F27" s="301" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G27" s="293" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H27" s="287" t="s">
         <v>47</v>
@@ -9118,7 +9143,7 @@
       </c>
       <c r="P27" s="292"/>
     </row>
-    <row r="28" spans="1:16" ht="229.5">
+    <row r="28" spans="1:16" ht="229.5" hidden="1">
       <c r="A28" s="299">
         <v>26</v>
       </c>
@@ -9135,26 +9160,30 @@
         <v>42555</v>
       </c>
       <c r="F28" s="190" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G28" s="199" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H28" s="200" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="200" t="s">
-        <v>343</v>
-      </c>
+      <c r="I28" s="200"/>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
-      <c r="L28" s="200"/>
-      <c r="M28" s="200"/>
-      <c r="N28" s="200"/>
-      <c r="O28" s="34"/>
+      <c r="L28" s="268" t="s">
+        <v>58</v>
+      </c>
+      <c r="M28" s="268"/>
+      <c r="N28" s="268" t="s">
+        <v>574</v>
+      </c>
+      <c r="O28" s="34">
+        <v>42652</v>
+      </c>
       <c r="P28" s="240"/>
     </row>
-    <row r="29" spans="1:16" ht="135">
+    <row r="29" spans="1:16" ht="135" hidden="1">
       <c r="A29" s="299">
         <v>27</v>
       </c>
@@ -9172,19 +9201,23 @@
       </c>
       <c r="F29" s="190"/>
       <c r="G29" s="267" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H29" s="200"/>
       <c r="I29" s="200"/>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
-      <c r="L29" s="200"/>
-      <c r="M29" s="200"/>
-      <c r="N29" s="200"/>
-      <c r="O29" s="34"/>
+      <c r="L29" s="268" t="s">
+        <v>58</v>
+      </c>
+      <c r="M29" s="268"/>
+      <c r="N29" s="268"/>
+      <c r="O29" s="34">
+        <v>42652</v>
+      </c>
       <c r="P29" s="240"/>
     </row>
-    <row r="30" spans="1:16" s="210" customFormat="1" ht="67.5">
+    <row r="30" spans="1:16" s="210" customFormat="1" ht="67.5" hidden="1">
       <c r="A30" s="299">
         <v>28</v>
       </c>
@@ -9202,11 +9235,11 @@
       </c>
       <c r="F30" s="205"/>
       <c r="G30" s="206" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H30" s="207"/>
       <c r="I30" s="203" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J30" s="208"/>
       <c r="K30" s="204">
@@ -9218,7 +9251,7 @@
       <c r="O30" s="204"/>
       <c r="P30" s="209"/>
     </row>
-    <row r="31" spans="1:16" s="210" customFormat="1" ht="54">
+    <row r="31" spans="1:16" s="210" customFormat="1" ht="54" hidden="1">
       <c r="A31" s="299">
         <v>29</v>
       </c>
@@ -9235,14 +9268,14 @@
         <v>42507</v>
       </c>
       <c r="F31" s="205" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G31" s="206" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H31" s="207"/>
       <c r="I31" s="203" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J31" s="208"/>
       <c r="K31" s="204">
@@ -9254,7 +9287,7 @@
       <c r="O31" s="204"/>
       <c r="P31" s="209"/>
     </row>
-    <row r="32" spans="1:16" s="178" customFormat="1" ht="54">
+    <row r="32" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
       <c r="A32" s="299">
         <v>30</v>
       </c>
@@ -9272,7 +9305,7 @@
       </c>
       <c r="F32" s="191"/>
       <c r="G32" s="175" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H32" s="176"/>
       <c r="I32" s="172" t="s">
@@ -9292,7 +9325,7 @@
       </c>
       <c r="P32" s="177"/>
     </row>
-    <row r="33" spans="1:16" s="178" customFormat="1" ht="54">
+    <row r="33" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
       <c r="A33" s="299">
         <v>31</v>
       </c>
@@ -9310,7 +9343,7 @@
       </c>
       <c r="F33" s="191"/>
       <c r="G33" s="175" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H33" s="176"/>
       <c r="I33" s="172" t="s">
@@ -9330,7 +9363,7 @@
       </c>
       <c r="P33" s="177"/>
     </row>
-    <row r="34" spans="1:16" s="178" customFormat="1" ht="94.5">
+    <row r="34" spans="1:16" s="178" customFormat="1" ht="94.5" hidden="1">
       <c r="A34" s="299">
         <v>32</v>
       </c>
@@ -9348,7 +9381,7 @@
       </c>
       <c r="F34" s="191"/>
       <c r="G34" s="175" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H34" s="176"/>
       <c r="I34" s="172" t="s">
@@ -9368,7 +9401,7 @@
       </c>
       <c r="P34" s="177"/>
     </row>
-    <row r="35" spans="1:16" s="178" customFormat="1" ht="67.5">
+    <row r="35" spans="1:16" s="178" customFormat="1" ht="67.5" hidden="1">
       <c r="A35" s="299">
         <v>33</v>
       </c>
@@ -9386,7 +9419,7 @@
       </c>
       <c r="F35" s="191"/>
       <c r="G35" s="175" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H35" s="176"/>
       <c r="I35" s="172" t="s">
@@ -9406,7 +9439,7 @@
       </c>
       <c r="P35" s="177"/>
     </row>
-    <row r="36" spans="1:16" s="72" customFormat="1">
+    <row r="36" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A36" s="299">
         <v>34</v>
       </c>
@@ -9424,13 +9457,13 @@
       </c>
       <c r="F36" s="191"/>
       <c r="G36" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="H36" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="70" t="s">
+      <c r="I36" s="137" t="s">
         <v>138</v>
-      </c>
-      <c r="I36" s="137" t="s">
-        <v>139</v>
       </c>
       <c r="J36" s="131"/>
       <c r="K36" s="130">
@@ -9444,7 +9477,7 @@
       <c r="O36" s="173"/>
       <c r="P36" s="177"/>
     </row>
-    <row r="37" spans="1:16" s="178" customFormat="1" ht="27">
+    <row r="37" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
       <c r="A37" s="299">
         <v>35</v>
       </c>
@@ -9461,32 +9494,32 @@
         <v>42555</v>
       </c>
       <c r="F37" s="191" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G37" s="175" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H37" s="176"/>
       <c r="I37" s="172" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J37" s="131"/>
       <c r="K37" s="173">
         <v>42634</v>
       </c>
       <c r="L37" s="172" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M37" s="176"/>
       <c r="N37" s="176" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O37" s="173">
         <v>42631</v>
       </c>
       <c r="P37" s="177"/>
     </row>
-    <row r="38" spans="1:16" s="178" customFormat="1">
+    <row r="38" spans="1:16" s="178" customFormat="1" hidden="1">
       <c r="A38" s="299">
         <v>36</v>
       </c>
@@ -9503,33 +9536,33 @@
         <v>42555</v>
       </c>
       <c r="F38" s="176" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G38" s="175" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I38" s="172" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J38" s="131"/>
       <c r="K38" s="173">
         <v>42634</v>
       </c>
       <c r="L38" s="172" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M38" s="176" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N38" s="176" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O38" s="173">
         <v>42631</v>
       </c>
       <c r="P38" s="177"/>
     </row>
-    <row r="39" spans="1:16" s="178" customFormat="1">
+    <row r="39" spans="1:16" s="178" customFormat="1" hidden="1">
       <c r="A39" s="299">
         <v>37</v>
       </c>
@@ -9565,7 +9598,7 @@
       <c r="O39" s="173"/>
       <c r="P39" s="177"/>
     </row>
-    <row r="40" spans="1:16" s="178" customFormat="1" ht="40.5">
+    <row r="40" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
       <c r="A40" s="299">
         <v>38</v>
       </c>
@@ -9582,14 +9615,14 @@
         <v>42555</v>
       </c>
       <c r="F40" s="191" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G40" s="175" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H40" s="176"/>
       <c r="I40" s="172" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J40" s="131"/>
       <c r="K40" s="173">
@@ -9600,12 +9633,12 @@
       </c>
       <c r="M40" s="176"/>
       <c r="N40" s="176" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O40" s="173"/>
       <c r="P40" s="177"/>
     </row>
-    <row r="41" spans="1:16" s="72" customFormat="1" ht="54">
+    <row r="41" spans="1:16" s="72" customFormat="1" ht="54" hidden="1">
       <c r="A41" s="299">
         <v>39</v>
       </c>
@@ -9623,7 +9656,7 @@
       </c>
       <c r="F41" s="191"/>
       <c r="G41" s="69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H41" s="70"/>
       <c r="I41" s="137" t="s">
@@ -9638,14 +9671,14 @@
       </c>
       <c r="M41" s="176"/>
       <c r="N41" s="176" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="173">
         <v>42616</v>
       </c>
       <c r="P41" s="177"/>
     </row>
-    <row r="42" spans="1:16" s="178" customFormat="1" ht="108">
+    <row r="42" spans="1:16" s="178" customFormat="1" ht="108" hidden="1">
       <c r="A42" s="299">
         <v>40</v>
       </c>
@@ -9663,7 +9696,7 @@
       </c>
       <c r="F42" s="191"/>
       <c r="G42" s="175" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H42" s="176" t="s">
         <v>47</v>
@@ -9685,7 +9718,7 @@
       </c>
       <c r="P42" s="177"/>
     </row>
-    <row r="43" spans="1:16" s="178" customFormat="1" ht="256.5">
+    <row r="43" spans="1:16" s="178" customFormat="1" ht="256.5" hidden="1">
       <c r="A43" s="299">
         <v>41</v>
       </c>
@@ -9703,7 +9736,7 @@
       </c>
       <c r="F43" s="191"/>
       <c r="G43" s="179" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H43" s="176" t="s">
         <v>47</v>
@@ -9725,7 +9758,7 @@
       </c>
       <c r="P43" s="177"/>
     </row>
-    <row r="44" spans="1:16" s="178" customFormat="1" ht="40.5">
+    <row r="44" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
       <c r="A44" s="299">
         <v>42</v>
       </c>
@@ -9743,11 +9776,11 @@
       </c>
       <c r="F44" s="191"/>
       <c r="G44" s="175" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H44" s="176"/>
       <c r="I44" s="172" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J44" s="131"/>
       <c r="K44" s="173">
@@ -9763,7 +9796,7 @@
       </c>
       <c r="P44" s="177"/>
     </row>
-    <row r="45" spans="1:16" s="178" customFormat="1" ht="121.5">
+    <row r="45" spans="1:16" s="178" customFormat="1" ht="121.5" hidden="1">
       <c r="A45" s="299">
         <v>43</v>
       </c>
@@ -9781,11 +9814,11 @@
       </c>
       <c r="F45" s="191"/>
       <c r="G45" s="175" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H45" s="176"/>
       <c r="I45" s="172" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J45" s="131"/>
       <c r="K45" s="173">
@@ -9801,7 +9834,7 @@
       </c>
       <c r="P45" s="177"/>
     </row>
-    <row r="46" spans="1:16" s="178" customFormat="1" ht="270">
+    <row r="46" spans="1:16" s="178" customFormat="1" ht="270" hidden="1">
       <c r="A46" s="299">
         <v>44</v>
       </c>
@@ -9818,14 +9851,14 @@
         <v>42555</v>
       </c>
       <c r="F46" s="191" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G46" s="175" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H46" s="176"/>
       <c r="I46" s="172" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J46" s="131"/>
       <c r="K46" s="173">
@@ -9841,7 +9874,7 @@
       </c>
       <c r="P46" s="177"/>
     </row>
-    <row r="47" spans="1:16" s="250" customFormat="1" ht="121.5">
+    <row r="47" spans="1:16" s="250" customFormat="1" ht="121.5" hidden="1">
       <c r="A47" s="299">
         <v>45</v>
       </c>
@@ -9858,10 +9891,10 @@
         <v>42555</v>
       </c>
       <c r="F47" s="301" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G47" s="286" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H47" s="287"/>
       <c r="I47" s="287" t="s">
@@ -9877,7 +9910,7 @@
       <c r="O47" s="245"/>
       <c r="P47" s="251"/>
     </row>
-    <row r="48" spans="1:16" s="178" customFormat="1" ht="94.5">
+    <row r="48" spans="1:16" s="178" customFormat="1" ht="94.5" hidden="1">
       <c r="A48" s="299">
         <v>46</v>
       </c>
@@ -9895,13 +9928,13 @@
       </c>
       <c r="F48" s="174"/>
       <c r="G48" s="175" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H48" s="176" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I48" s="172" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J48" s="131"/>
       <c r="K48" s="173">
@@ -9913,7 +9946,7 @@
       <c r="O48" s="173"/>
       <c r="P48" s="177"/>
     </row>
-    <row r="49" spans="1:16" ht="94.5">
+    <row r="49" spans="1:16" ht="94.5" hidden="1">
       <c r="A49" s="299">
         <v>47</v>
       </c>
@@ -9930,26 +9963,30 @@
         <v>42558</v>
       </c>
       <c r="F49" s="190" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G49" s="290" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H49" s="200" t="s">
-        <v>351</v>
-      </c>
-      <c r="I49" s="268" t="s">
-        <v>65</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="I49" s="268"/>
       <c r="J49" s="28"/>
       <c r="K49" s="28"/>
-      <c r="L49" s="200"/>
-      <c r="M49" s="200"/>
-      <c r="N49" s="200"/>
-      <c r="O49" s="34"/>
+      <c r="L49" s="268" t="s">
+        <v>58</v>
+      </c>
+      <c r="M49" s="268"/>
+      <c r="N49" s="268" t="s">
+        <v>575</v>
+      </c>
+      <c r="O49" s="34">
+        <v>42654</v>
+      </c>
       <c r="P49" s="240"/>
     </row>
-    <row r="50" spans="1:16" s="242" customFormat="1" ht="121.5">
+    <row r="50" spans="1:16" s="242" customFormat="1" ht="121.5" hidden="1">
       <c r="A50" s="299">
         <v>48</v>
       </c>
@@ -9966,26 +10003,28 @@
         <v>42558</v>
       </c>
       <c r="F50" s="214" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G50" s="267" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H50" s="200" t="s">
-        <v>142</v>
-      </c>
-      <c r="I50" s="200" t="s">
-        <v>145</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="I50" s="200"/>
       <c r="J50" s="154"/>
       <c r="K50" s="241"/>
-      <c r="L50" s="200"/>
-      <c r="M50" s="200"/>
-      <c r="N50" s="200"/>
-      <c r="O50" s="241"/>
+      <c r="L50" s="268" t="s">
+        <v>58</v>
+      </c>
+      <c r="M50" s="268"/>
+      <c r="N50" s="268"/>
+      <c r="O50" s="241">
+        <v>42652</v>
+      </c>
       <c r="P50" s="240"/>
     </row>
-    <row r="51" spans="1:16" s="72" customFormat="1" ht="27">
+    <row r="51" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
       <c r="A51" s="299">
         <v>49</v>
       </c>
@@ -10021,7 +10060,7 @@
       <c r="O51" s="173"/>
       <c r="P51" s="177"/>
     </row>
-    <row r="52" spans="1:16" s="280" customFormat="1" ht="67.5">
+    <row r="52" spans="1:16" s="280" customFormat="1" ht="67.5" hidden="1">
       <c r="A52" s="272">
         <v>50</v>
       </c>
@@ -10038,31 +10077,31 @@
         <v>42612</v>
       </c>
       <c r="F52" s="302" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G52" s="276" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H52" s="277"/>
       <c r="I52" s="277" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="J52" s="278"/>
       <c r="K52" s="274">
         <v>42651</v>
       </c>
       <c r="L52" s="273" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="N52" s="280" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="O52" s="233">
         <v>42651</v>
       </c>
       <c r="P52" s="279"/>
     </row>
-    <row r="53" spans="1:16" s="178" customFormat="1">
+    <row r="53" spans="1:16" s="178" customFormat="1" hidden="1">
       <c r="A53" s="299">
         <v>51</v>
       </c>
@@ -10079,14 +10118,14 @@
         <v>42612</v>
       </c>
       <c r="F53" s="174" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G53" s="175" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H53" s="176"/>
       <c r="I53" s="213" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J53" s="131"/>
       <c r="K53" s="173">
@@ -10098,7 +10137,7 @@
       <c r="O53" s="173"/>
       <c r="P53" s="177"/>
     </row>
-    <row r="54" spans="1:16" s="289" customFormat="1" ht="108">
+    <row r="54" spans="1:16" s="289" customFormat="1" ht="108" hidden="1">
       <c r="A54" s="299">
         <v>52</v>
       </c>
@@ -10115,16 +10154,16 @@
         <v>42612</v>
       </c>
       <c r="F54" s="301" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G54" s="286" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H54" s="287" t="s">
         <v>47</v>
       </c>
       <c r="I54" s="283" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J54" s="288"/>
       <c r="K54" s="284">
@@ -10135,14 +10174,14 @@
       </c>
       <c r="M54" s="287"/>
       <c r="N54" s="287" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="O54" s="284">
         <v>42634</v>
       </c>
       <c r="P54" s="292"/>
     </row>
-    <row r="55" spans="1:16" s="178" customFormat="1">
+    <row r="55" spans="1:16" s="178" customFormat="1" hidden="1">
       <c r="A55" s="299">
         <v>53</v>
       </c>
@@ -10160,7 +10199,7 @@
       </c>
       <c r="F55" s="191"/>
       <c r="G55" s="175" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H55" s="176" t="s">
         <v>47</v>
@@ -10182,7 +10221,7 @@
       </c>
       <c r="P55" s="177"/>
     </row>
-    <row r="56" spans="1:16" s="178" customFormat="1" ht="27">
+    <row r="56" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
       <c r="A56" s="299">
         <v>54</v>
       </c>
@@ -10200,7 +10239,7 @@
       </c>
       <c r="F56" s="191"/>
       <c r="G56" s="175" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H56" s="176"/>
       <c r="I56" s="172" t="s">
@@ -10220,7 +10259,7 @@
       </c>
       <c r="P56" s="177"/>
     </row>
-    <row r="57" spans="1:16" s="250" customFormat="1" ht="189">
+    <row r="57" spans="1:16" s="250" customFormat="1" ht="189" hidden="1">
       <c r="A57" s="299">
         <v>55</v>
       </c>
@@ -10237,16 +10276,16 @@
         <v>42612</v>
       </c>
       <c r="F57" s="301" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G57" s="293" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H57" s="287" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I57" s="283" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J57" s="244"/>
       <c r="K57" s="245">
@@ -10258,7 +10297,7 @@
       <c r="O57" s="245"/>
       <c r="P57" s="251"/>
     </row>
-    <row r="58" spans="1:16" s="59" customFormat="1" ht="27">
+    <row r="58" spans="1:16" s="59" customFormat="1" ht="27" hidden="1">
       <c r="A58" s="299">
         <v>56</v>
       </c>
@@ -10276,11 +10315,11 @@
       </c>
       <c r="F58" s="193"/>
       <c r="G58" s="55" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H58" s="56"/>
       <c r="I58" s="52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J58" s="57"/>
       <c r="K58" s="53">
@@ -10296,7 +10335,7 @@
       </c>
       <c r="P58" s="58"/>
     </row>
-    <row r="59" spans="1:16" s="59" customFormat="1" ht="27">
+    <row r="59" spans="1:16" s="59" customFormat="1" ht="27" hidden="1">
       <c r="A59" s="299">
         <v>57</v>
       </c>
@@ -10314,11 +10353,11 @@
       </c>
       <c r="F59" s="193"/>
       <c r="G59" s="55" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H59" s="56"/>
       <c r="I59" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J59" s="57"/>
       <c r="K59" s="53">
@@ -10334,7 +10373,7 @@
       </c>
       <c r="P59" s="58"/>
     </row>
-    <row r="60" spans="1:16" s="178" customFormat="1" ht="27">
+    <row r="60" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
       <c r="A60" s="299">
         <v>58</v>
       </c>
@@ -10352,28 +10391,28 @@
       </c>
       <c r="F60" s="191"/>
       <c r="G60" s="175" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I60" s="176" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J60" s="131"/>
       <c r="K60" s="173">
         <v>42634</v>
       </c>
       <c r="L60" s="172" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M60" s="176"/>
       <c r="N60" s="176" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O60" s="173">
         <v>42630</v>
       </c>
       <c r="P60" s="177"/>
     </row>
-    <row r="61" spans="1:16" s="82" customFormat="1" ht="40.5">
+    <row r="61" spans="1:16" s="82" customFormat="1" ht="40.5" hidden="1">
       <c r="A61" s="299">
         <v>59</v>
       </c>
@@ -10390,14 +10429,14 @@
         <v>42612</v>
       </c>
       <c r="F61" s="190" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G61" s="189" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H61" s="87"/>
       <c r="I61" s="188" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J61" s="88"/>
       <c r="K61" s="88"/>
@@ -10411,7 +10450,7 @@
       </c>
       <c r="P61" s="168"/>
     </row>
-    <row r="62" spans="1:16" s="178" customFormat="1" ht="27">
+    <row r="62" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
       <c r="A62" s="299">
         <v>60</v>
       </c>
@@ -10428,32 +10467,32 @@
         <v>42612</v>
       </c>
       <c r="F62" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G62" s="175" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H62" s="176"/>
       <c r="I62" s="176" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J62" s="131"/>
       <c r="K62" s="173">
         <v>42634</v>
       </c>
       <c r="L62" s="172" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M62" s="176"/>
       <c r="N62" s="176" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O62" s="173">
         <v>42630</v>
       </c>
       <c r="P62" s="177"/>
     </row>
-    <row r="63" spans="1:16" s="72" customFormat="1">
+    <row r="63" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A63" s="299">
         <v>61</v>
       </c>
@@ -10493,7 +10532,7 @@
       </c>
       <c r="P63" s="177"/>
     </row>
-    <row r="64" spans="1:16" s="178" customFormat="1" ht="40.5">
+    <row r="64" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
       <c r="A64" s="299">
         <v>62</v>
       </c>
@@ -10510,34 +10549,34 @@
         <v>42612</v>
       </c>
       <c r="F64" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G64" s="175" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H64" s="176" t="s">
         <v>47</v>
       </c>
       <c r="I64" s="176" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J64" s="131"/>
       <c r="K64" s="173">
         <v>42634</v>
       </c>
       <c r="L64" s="172" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M64" s="176"/>
       <c r="N64" s="176" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O64" s="173">
         <v>42630</v>
       </c>
       <c r="P64" s="177"/>
     </row>
-    <row r="65" spans="1:16" s="72" customFormat="1">
+    <row r="65" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A65" s="299">
         <v>63</v>
       </c>
@@ -10577,7 +10616,7 @@
       </c>
       <c r="P65" s="177"/>
     </row>
-    <row r="66" spans="1:16" s="72" customFormat="1">
+    <row r="66" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A66" s="299">
         <v>64</v>
       </c>
@@ -10617,7 +10656,7 @@
       </c>
       <c r="P66" s="177"/>
     </row>
-    <row r="67" spans="1:16" s="100" customFormat="1" ht="40.5">
+    <row r="67" spans="1:16" s="100" customFormat="1" ht="40.5" hidden="1">
       <c r="A67" s="299">
         <v>65</v>
       </c>
@@ -10635,13 +10674,13 @@
       </c>
       <c r="F67" s="191"/>
       <c r="G67" s="69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H67" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="I67" s="66" t="s">
         <v>82</v>
-      </c>
-      <c r="I67" s="66" t="s">
-        <v>83</v>
       </c>
       <c r="J67" s="71"/>
       <c r="K67" s="67">
@@ -10657,7 +10696,7 @@
       </c>
       <c r="P67" s="177"/>
     </row>
-    <row r="68" spans="1:16" s="72" customFormat="1" ht="27">
+    <row r="68" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
       <c r="A68" s="299">
         <v>66</v>
       </c>
@@ -10697,7 +10736,7 @@
       </c>
       <c r="P68" s="177"/>
     </row>
-    <row r="69" spans="1:16" s="72" customFormat="1">
+    <row r="69" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A69" s="299">
         <v>67</v>
       </c>
@@ -10715,13 +10754,13 @@
       </c>
       <c r="F69" s="191"/>
       <c r="G69" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="H69" s="70" t="s">
-        <v>78</v>
-      </c>
       <c r="I69" s="66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J69" s="71"/>
       <c r="K69" s="67">
@@ -10737,7 +10776,7 @@
       </c>
       <c r="P69" s="177"/>
     </row>
-    <row r="70" spans="1:16" s="178" customFormat="1" ht="54">
+    <row r="70" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
       <c r="A70" s="299">
         <v>68</v>
       </c>
@@ -10754,16 +10793,16 @@
         <v>42612</v>
       </c>
       <c r="F70" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G70" s="175" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H70" s="176" t="s">
         <v>47</v>
       </c>
       <c r="I70" s="172" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J70" s="131"/>
       <c r="K70" s="173">
@@ -10774,14 +10813,14 @@
       </c>
       <c r="M70" s="176"/>
       <c r="N70" s="176" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O70" s="173">
         <v>42616</v>
       </c>
       <c r="P70" s="177"/>
     </row>
-    <row r="71" spans="1:16" s="178" customFormat="1" ht="27">
+    <row r="71" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
       <c r="A71" s="299">
         <v>69</v>
       </c>
@@ -10799,13 +10838,13 @@
       </c>
       <c r="F71" s="191"/>
       <c r="G71" s="175" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H71" s="176" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I71" s="172" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J71" s="131"/>
       <c r="K71" s="173">
@@ -10816,14 +10855,14 @@
       </c>
       <c r="M71" s="176"/>
       <c r="N71" s="176" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O71" s="173">
         <v>42616</v>
       </c>
       <c r="P71" s="177"/>
     </row>
-    <row r="72" spans="1:16" s="72" customFormat="1">
+    <row r="72" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A72" s="299">
         <v>70</v>
       </c>
@@ -10863,7 +10902,7 @@
       </c>
       <c r="P72" s="177"/>
     </row>
-    <row r="73" spans="1:16" s="178" customFormat="1" ht="54">
+    <row r="73" spans="1:16" s="178" customFormat="1" ht="54" hidden="1">
       <c r="A73" s="299">
         <v>71</v>
       </c>
@@ -10880,16 +10919,16 @@
         <v>42612</v>
       </c>
       <c r="F73" s="191" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G73" s="179" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H73" s="176" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I73" s="172" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J73" s="131"/>
       <c r="K73" s="173">
@@ -10905,7 +10944,7 @@
       </c>
       <c r="P73" s="177"/>
     </row>
-    <row r="74" spans="1:16" s="178" customFormat="1" ht="27">
+    <row r="74" spans="1:16" s="178" customFormat="1" ht="27" hidden="1">
       <c r="A74" s="299">
         <v>72</v>
       </c>
@@ -10923,7 +10962,7 @@
       </c>
       <c r="F74" s="191"/>
       <c r="G74" s="175" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H74" s="176" t="s">
         <v>47</v>
@@ -10940,14 +10979,14 @@
       </c>
       <c r="M74" s="176"/>
       <c r="N74" s="176" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O74" s="173">
         <v>42616</v>
       </c>
       <c r="P74" s="177"/>
     </row>
-    <row r="75" spans="1:16" s="72" customFormat="1">
+    <row r="75" spans="1:16" s="72" customFormat="1" hidden="1">
       <c r="A75" s="299">
         <v>73</v>
       </c>
@@ -10965,7 +11004,7 @@
       </c>
       <c r="F75" s="191"/>
       <c r="G75" s="69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H75" s="70" t="s">
         <v>47</v>
@@ -10987,7 +11026,7 @@
       </c>
       <c r="P75" s="177"/>
     </row>
-    <row r="76" spans="1:16" s="280" customFormat="1" ht="94.5">
+    <row r="76" spans="1:16" s="280" customFormat="1" ht="94.5" hidden="1">
       <c r="A76" s="272">
         <v>74</v>
       </c>
@@ -11004,10 +11043,10 @@
         <v>42612</v>
       </c>
       <c r="F76" s="302" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G76" s="304" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H76" s="277"/>
       <c r="I76" s="273" t="s">
@@ -11018,18 +11057,18 @@
         <v>42651</v>
       </c>
       <c r="L76" s="273" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M76" s="277"/>
       <c r="N76" s="277" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="O76" s="274">
         <v>42651</v>
       </c>
       <c r="P76" s="279"/>
     </row>
-    <row r="77" spans="1:16" s="59" customFormat="1" ht="40.5">
+    <row r="77" spans="1:16" s="59" customFormat="1" ht="40.5" hidden="1">
       <c r="A77" s="299">
         <v>75</v>
       </c>
@@ -11047,11 +11086,11 @@
       </c>
       <c r="F77" s="193"/>
       <c r="G77" s="55" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H77" s="56"/>
       <c r="I77" s="52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J77" s="57"/>
       <c r="K77" s="53">
@@ -11067,7 +11106,7 @@
       </c>
       <c r="P77" s="58"/>
     </row>
-    <row r="78" spans="1:16" s="178" customFormat="1" ht="40.5">
+    <row r="78" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
       <c r="A78" s="299">
         <v>76</v>
       </c>
@@ -11085,7 +11124,7 @@
       </c>
       <c r="F78" s="191"/>
       <c r="G78" s="175" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H78" s="176"/>
       <c r="I78" s="172" t="s">
@@ -11100,14 +11139,14 @@
       </c>
       <c r="M78" s="176"/>
       <c r="N78" s="176" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O78" s="173">
         <v>42616</v>
       </c>
       <c r="P78" s="177"/>
     </row>
-    <row r="79" spans="1:16" s="178" customFormat="1" ht="40.5">
+    <row r="79" spans="1:16" s="178" customFormat="1" ht="40.5" hidden="1">
       <c r="A79" s="299">
         <v>77</v>
       </c>
@@ -11125,7 +11164,7 @@
       </c>
       <c r="F79" s="191"/>
       <c r="G79" s="175" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H79" s="176"/>
       <c r="I79" s="172" t="s">
@@ -11162,10 +11201,10 @@
         <v>42612</v>
       </c>
       <c r="F80" s="190" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G80" s="199" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H80" s="200" t="s">
         <v>47</v>
@@ -11179,7 +11218,7 @@
       <c r="O80" s="34"/>
       <c r="P80" s="240"/>
     </row>
-    <row r="81" spans="1:16" s="280" customFormat="1" ht="40.5">
+    <row r="81" spans="1:16" s="280" customFormat="1" ht="40.5" hidden="1">
       <c r="A81" s="272">
         <v>79</v>
       </c>
@@ -11196,14 +11235,14 @@
         <v>42612</v>
       </c>
       <c r="F81" s="302" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G81" s="276" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H81" s="277"/>
       <c r="I81" s="273" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J81" s="278"/>
       <c r="K81" s="274">
@@ -11214,7 +11253,7 @@
       </c>
       <c r="M81" s="277"/>
       <c r="N81" s="277" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="O81" s="274">
         <v>42639</v>
@@ -11239,7 +11278,7 @@
       </c>
       <c r="F82" s="190"/>
       <c r="G82" s="199" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H82" s="200" t="s">
         <v>47</v>
@@ -11253,7 +11292,7 @@
       <c r="O82" s="34"/>
       <c r="P82" s="240"/>
     </row>
-    <row r="83" spans="1:16" s="72" customFormat="1" ht="27">
+    <row r="83" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
       <c r="A83" s="299">
         <v>81</v>
       </c>
@@ -11291,7 +11330,7 @@
       </c>
       <c r="P83" s="177"/>
     </row>
-    <row r="84" spans="1:16" s="178" customFormat="1">
+    <row r="84" spans="1:16" s="178" customFormat="1" hidden="1">
       <c r="A84" s="299">
         <v>82</v>
       </c>
@@ -11309,13 +11348,13 @@
       </c>
       <c r="F84" s="191"/>
       <c r="G84" s="179" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H84" s="176" t="s">
         <v>47</v>
       </c>
       <c r="I84" s="172" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J84" s="131"/>
       <c r="K84" s="173">
@@ -11331,7 +11370,7 @@
       </c>
       <c r="P84" s="177"/>
     </row>
-    <row r="85" spans="1:16" s="82" customFormat="1" ht="27">
+    <row r="85" spans="1:16" s="82" customFormat="1" ht="27" hidden="1">
       <c r="A85" s="299">
         <v>83</v>
       </c>
@@ -11349,11 +11388,11 @@
       </c>
       <c r="F85" s="181"/>
       <c r="G85" s="99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H85" s="87"/>
       <c r="I85" s="213" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J85" s="71"/>
       <c r="K85" s="67"/>
@@ -11363,7 +11402,7 @@
       <c r="O85" s="134"/>
       <c r="P85" s="168"/>
     </row>
-    <row r="86" spans="1:16" s="210" customFormat="1" ht="148.5">
+    <row r="86" spans="1:16" s="210" customFormat="1" ht="148.5" hidden="1">
       <c r="A86" s="299">
         <v>84</v>
       </c>
@@ -11380,16 +11419,16 @@
         <v>42616</v>
       </c>
       <c r="F86" s="193" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G86" s="218" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H86" s="207" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I86" s="203" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J86" s="208"/>
       <c r="K86" s="204">
@@ -11400,12 +11439,12 @@
       </c>
       <c r="M86" s="207"/>
       <c r="N86" s="207" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O86" s="204"/>
       <c r="P86" s="209"/>
     </row>
-    <row r="87" spans="1:16" s="210" customFormat="1" ht="189">
+    <row r="87" spans="1:16" s="210" customFormat="1" ht="189" hidden="1">
       <c r="A87" s="299">
         <v>85</v>
       </c>
@@ -11422,16 +11461,16 @@
         <v>42616</v>
       </c>
       <c r="F87" s="193" t="s">
+        <v>287</v>
+      </c>
+      <c r="G87" s="206" t="s">
         <v>289</v>
-      </c>
-      <c r="G87" s="206" t="s">
-        <v>291</v>
       </c>
       <c r="H87" s="207" t="s">
         <v>47</v>
       </c>
       <c r="I87" s="203" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J87" s="208"/>
       <c r="K87" s="204">
@@ -11442,12 +11481,12 @@
       </c>
       <c r="M87" s="207"/>
       <c r="N87" s="207" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O87" s="204"/>
       <c r="P87" s="209"/>
     </row>
-    <row r="88" spans="1:16" ht="40.5">
+    <row r="88" spans="1:16" ht="40.5" hidden="1">
       <c r="A88" s="299">
         <v>86</v>
       </c>
@@ -11464,14 +11503,24 @@
         <v>42616</v>
       </c>
       <c r="F88" s="243" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G88" s="303" t="s">
-        <v>452</v>
+        <v>448</v>
+      </c>
+      <c r="L88" s="261" t="s">
+        <v>576</v>
+      </c>
+      <c r="M88" s="261"/>
+      <c r="N88" s="261" t="s">
+        <v>577</v>
+      </c>
+      <c r="O88" s="249">
+        <v>42653</v>
       </c>
       <c r="P88" s="240"/>
     </row>
-    <row r="89" spans="1:16" s="210" customFormat="1">
+    <row r="89" spans="1:16" s="210" customFormat="1" hidden="1">
       <c r="A89" s="299">
         <v>87</v>
       </c>
@@ -11489,13 +11538,13 @@
       </c>
       <c r="F89" s="205"/>
       <c r="G89" s="206" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H89" s="207" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I89" s="203" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J89" s="208"/>
       <c r="K89" s="204">
@@ -11507,7 +11556,7 @@
       <c r="O89" s="204"/>
       <c r="P89" s="209"/>
     </row>
-    <row r="90" spans="1:16" s="210" customFormat="1" ht="27">
+    <row r="90" spans="1:16" s="210" customFormat="1" ht="27" hidden="1">
       <c r="A90" s="299">
         <v>88</v>
       </c>
@@ -11525,13 +11574,13 @@
       </c>
       <c r="F90" s="193"/>
       <c r="G90" s="206" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H90" s="207" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I90" s="203" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J90" s="208"/>
       <c r="K90" s="204">
@@ -11542,12 +11591,12 @@
       </c>
       <c r="M90" s="207"/>
       <c r="N90" s="207" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O90" s="204"/>
       <c r="P90" s="209"/>
     </row>
-    <row r="91" spans="1:16" s="210" customFormat="1">
+    <row r="91" spans="1:16" s="210" customFormat="1" hidden="1">
       <c r="A91" s="299">
         <v>89</v>
       </c>
@@ -11565,11 +11614,11 @@
       </c>
       <c r="F91" s="193"/>
       <c r="G91" s="206" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H91" s="207"/>
       <c r="I91" s="203" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J91" s="208"/>
       <c r="K91" s="204">
@@ -11580,12 +11629,12 @@
       </c>
       <c r="M91" s="207"/>
       <c r="N91" s="207" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O91" s="204"/>
       <c r="P91" s="209"/>
     </row>
-    <row r="92" spans="1:16" s="210" customFormat="1">
+    <row r="92" spans="1:16" s="210" customFormat="1" hidden="1">
       <c r="A92" s="299">
         <v>90</v>
       </c>
@@ -11603,11 +11652,11 @@
       </c>
       <c r="F92" s="193"/>
       <c r="G92" s="206" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H92" s="207"/>
       <c r="I92" s="203" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J92" s="208"/>
       <c r="K92" s="204">
@@ -11618,12 +11667,12 @@
       </c>
       <c r="M92" s="207"/>
       <c r="N92" s="207" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O92" s="204"/>
       <c r="P92" s="209"/>
     </row>
-    <row r="93" spans="1:16" s="210" customFormat="1">
+    <row r="93" spans="1:16" s="210" customFormat="1" hidden="1">
       <c r="A93" s="299">
         <v>91</v>
       </c>
@@ -11641,11 +11690,11 @@
       </c>
       <c r="F93" s="193"/>
       <c r="G93" s="206" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H93" s="207"/>
       <c r="I93" s="203" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J93" s="208"/>
       <c r="K93" s="204">
@@ -11656,12 +11705,12 @@
       </c>
       <c r="M93" s="207"/>
       <c r="N93" s="207" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O93" s="204"/>
       <c r="P93" s="209"/>
     </row>
-    <row r="94" spans="1:16" s="210" customFormat="1">
+    <row r="94" spans="1:16" s="210" customFormat="1" hidden="1">
       <c r="A94" s="299">
         <v>92</v>
       </c>
@@ -11679,11 +11728,11 @@
       </c>
       <c r="F94" s="193"/>
       <c r="G94" s="206" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H94" s="207"/>
       <c r="I94" s="203" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J94" s="208"/>
       <c r="K94" s="204">
@@ -11694,12 +11743,12 @@
       </c>
       <c r="M94" s="207"/>
       <c r="N94" s="207" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O94" s="204"/>
       <c r="P94" s="209"/>
     </row>
-    <row r="95" spans="1:16" s="210" customFormat="1" ht="27">
+    <row r="95" spans="1:16" s="210" customFormat="1" ht="27" hidden="1">
       <c r="A95" s="299">
         <v>93</v>
       </c>
@@ -11717,11 +11766,11 @@
       </c>
       <c r="F95" s="193"/>
       <c r="G95" s="206" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H95" s="207"/>
       <c r="I95" s="203" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J95" s="208"/>
       <c r="K95" s="204">
@@ -11732,12 +11781,12 @@
       </c>
       <c r="M95" s="207"/>
       <c r="N95" s="207" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O95" s="204"/>
       <c r="P95" s="209"/>
     </row>
-    <row r="96" spans="1:16" ht="27">
+    <row r="96" spans="1:16" ht="27" hidden="1">
       <c r="A96" s="299">
         <v>94</v>
       </c>
@@ -11754,10 +11803,10 @@
         <v>42616</v>
       </c>
       <c r="F96" s="190" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G96" s="267" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H96" s="200" t="s">
         <v>47</v>
@@ -11765,13 +11814,19 @@
       <c r="I96" s="176"/>
       <c r="J96" s="244"/>
       <c r="K96" s="245"/>
-      <c r="L96" s="200"/>
-      <c r="M96" s="200"/>
-      <c r="N96" s="200"/>
-      <c r="O96" s="34"/>
+      <c r="L96" s="268" t="s">
+        <v>58</v>
+      </c>
+      <c r="M96" s="268"/>
+      <c r="N96" s="268" t="s">
+        <v>578</v>
+      </c>
+      <c r="O96" s="34">
+        <v>42653</v>
+      </c>
       <c r="P96" s="240"/>
     </row>
-    <row r="97" spans="1:16" s="250" customFormat="1" ht="27">
+    <row r="97" spans="1:16" s="250" customFormat="1" ht="27" hidden="1">
       <c r="A97" s="299">
         <v>95</v>
       </c>
@@ -11788,14 +11843,14 @@
         <v>42616</v>
       </c>
       <c r="F97" s="301" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G97" s="286" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H97" s="287"/>
       <c r="I97" s="283" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J97" s="288"/>
       <c r="K97" s="245">
@@ -11811,7 +11866,7 @@
       </c>
       <c r="P97" s="251"/>
     </row>
-    <row r="98" spans="1:16" s="250" customFormat="1" ht="40.5">
+    <row r="98" spans="1:16" s="250" customFormat="1" ht="40.5" hidden="1">
       <c r="A98" s="299">
         <v>96</v>
       </c>
@@ -11828,10 +11883,10 @@
         <v>42616</v>
       </c>
       <c r="F98" s="301" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G98" s="286" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H98" s="287"/>
       <c r="I98" s="283" t="s">
@@ -11851,7 +11906,7 @@
       </c>
       <c r="P98" s="251"/>
     </row>
-    <row r="99" spans="1:16" s="250" customFormat="1" ht="40.5">
+    <row r="99" spans="1:16" s="250" customFormat="1" ht="40.5" hidden="1">
       <c r="A99" s="299">
         <v>97</v>
       </c>
@@ -11868,10 +11923,10 @@
         <v>42616</v>
       </c>
       <c r="F99" s="301" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G99" s="286" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H99" s="287"/>
       <c r="I99" s="283" t="s">
@@ -11891,7 +11946,7 @@
       </c>
       <c r="P99" s="251"/>
     </row>
-    <row r="100" spans="1:16" s="289" customFormat="1" ht="27">
+    <row r="100" spans="1:16" s="289" customFormat="1" ht="27" hidden="1">
       <c r="A100" s="299">
         <v>98</v>
       </c>
@@ -11908,10 +11963,10 @@
         <v>42616</v>
       </c>
       <c r="F100" s="301" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G100" s="286" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H100" s="287"/>
       <c r="I100" s="283" t="s">
@@ -11926,12 +11981,12 @@
       </c>
       <c r="M100" s="287"/>
       <c r="N100" s="287" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O100" s="284"/>
       <c r="P100" s="292"/>
     </row>
-    <row r="101" spans="1:16" s="210" customFormat="1" ht="54">
+    <row r="101" spans="1:16" s="210" customFormat="1" ht="54" hidden="1">
       <c r="A101" s="299">
         <v>99</v>
       </c>
@@ -11949,11 +12004,11 @@
       </c>
       <c r="F101" s="205"/>
       <c r="G101" s="218" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H101" s="207"/>
       <c r="I101" s="203" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J101" s="208"/>
       <c r="K101" s="204">
@@ -11965,7 +12020,7 @@
       <c r="O101" s="204"/>
       <c r="P101" s="209"/>
     </row>
-    <row r="102" spans="1:16" s="210" customFormat="1" ht="27">
+    <row r="102" spans="1:16" s="210" customFormat="1" ht="27" hidden="1">
       <c r="A102" s="299">
         <v>100</v>
       </c>
@@ -11983,7 +12038,7 @@
       </c>
       <c r="F102" s="193"/>
       <c r="G102" s="206" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H102" s="207"/>
       <c r="I102" s="203" t="s">
@@ -12003,7 +12058,7 @@
       </c>
       <c r="P102" s="209"/>
     </row>
-    <row r="103" spans="1:16" s="210" customFormat="1">
+    <row r="103" spans="1:16" s="210" customFormat="1" hidden="1">
       <c r="A103" s="299">
         <v>101</v>
       </c>
@@ -12021,7 +12076,7 @@
       </c>
       <c r="F103" s="193"/>
       <c r="G103" s="206" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H103" s="207"/>
       <c r="I103" s="203" t="s">
@@ -12041,7 +12096,7 @@
       </c>
       <c r="P103" s="209"/>
     </row>
-    <row r="104" spans="1:16" s="210" customFormat="1" ht="27">
+    <row r="104" spans="1:16" s="210" customFormat="1" ht="27" hidden="1">
       <c r="A104" s="299">
         <v>102</v>
       </c>
@@ -12059,7 +12114,7 @@
       </c>
       <c r="F104" s="193"/>
       <c r="G104" s="206" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H104" s="207"/>
       <c r="I104" s="203" t="s">
@@ -12079,7 +12134,7 @@
       </c>
       <c r="P104" s="209"/>
     </row>
-    <row r="105" spans="1:16" s="210" customFormat="1" ht="27">
+    <row r="105" spans="1:16" s="210" customFormat="1" ht="27" hidden="1">
       <c r="A105" s="299">
         <v>103</v>
       </c>
@@ -12097,7 +12152,7 @@
       </c>
       <c r="F105" s="193"/>
       <c r="G105" s="206" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H105" s="207" t="s">
         <v>47</v>
@@ -12121,7 +12176,7 @@
       </c>
       <c r="P105" s="209"/>
     </row>
-    <row r="106" spans="1:16" s="178" customFormat="1">
+    <row r="106" spans="1:16" s="178" customFormat="1" hidden="1">
       <c r="A106" s="299">
         <v>104</v>
       </c>
@@ -12139,11 +12194,11 @@
       </c>
       <c r="F106" s="191"/>
       <c r="G106" s="175" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H106" s="176"/>
       <c r="I106" s="172" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J106" s="131"/>
       <c r="K106" s="173">
@@ -12159,7 +12214,7 @@
       </c>
       <c r="P106" s="177"/>
     </row>
-    <row r="107" spans="1:16" s="210" customFormat="1" ht="54">
+    <row r="107" spans="1:16" s="210" customFormat="1" ht="54" hidden="1">
       <c r="A107" s="299">
         <v>105</v>
       </c>
@@ -12177,7 +12232,7 @@
       </c>
       <c r="F107" s="193"/>
       <c r="G107" s="206" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H107" s="207" t="s">
         <v>47</v>
@@ -12194,7 +12249,7 @@
       </c>
       <c r="M107" s="207"/>
       <c r="N107" s="207" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O107" s="204">
         <v>42616</v>
@@ -12218,28 +12273,28 @@
         <v>42616</v>
       </c>
       <c r="F108" s="190" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G108" s="199" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H108" s="200" t="s">
         <v>47</v>
       </c>
       <c r="I108" s="176" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J108" s="28"/>
       <c r="K108" s="28"/>
       <c r="L108" s="200"/>
       <c r="M108" s="200"/>
       <c r="N108" s="200" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O108" s="34"/>
       <c r="P108" s="240"/>
     </row>
-    <row r="109" spans="1:16" s="210" customFormat="1" ht="27">
+    <row r="109" spans="1:16" s="210" customFormat="1" ht="27" hidden="1">
       <c r="A109" s="299">
         <v>107</v>
       </c>
@@ -12257,13 +12312,13 @@
       </c>
       <c r="F109" s="205"/>
       <c r="G109" s="206" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H109" s="207" t="s">
         <v>47</v>
       </c>
       <c r="I109" s="203" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J109" s="208"/>
       <c r="K109" s="204">
@@ -12277,7 +12332,7 @@
       </c>
       <c r="P109" s="209"/>
     </row>
-    <row r="110" spans="1:16" s="316" customFormat="1" ht="54">
+    <row r="110" spans="1:16" s="316" customFormat="1" ht="54" hidden="1">
       <c r="A110" s="299">
         <v>108</v>
       </c>
@@ -12294,10 +12349,10 @@
         <v>42616</v>
       </c>
       <c r="F110" s="302" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G110" s="319" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H110" s="306" t="s">
         <v>47</v>
@@ -12314,14 +12369,14 @@
       </c>
       <c r="M110" s="310"/>
       <c r="N110" s="310" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O110" s="320">
         <v>42643</v>
       </c>
       <c r="P110" s="321"/>
     </row>
-    <row r="111" spans="1:16" s="210" customFormat="1" ht="81">
+    <row r="111" spans="1:16" s="210" customFormat="1" ht="81" hidden="1">
       <c r="A111" s="299">
         <v>109</v>
       </c>
@@ -12339,13 +12394,13 @@
       </c>
       <c r="F111" s="221"/>
       <c r="G111" s="222" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H111" s="223" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I111" s="224" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J111" s="225"/>
       <c r="K111" s="226">
@@ -12356,7 +12411,7 @@
       </c>
       <c r="M111" s="227"/>
       <c r="N111" s="227" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O111" s="226"/>
       <c r="P111" s="228"/>
@@ -12379,7 +12434,7 @@
       </c>
       <c r="F112" s="190"/>
       <c r="G112" s="199" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H112" s="200" t="s">
         <v>47</v>
@@ -12393,7 +12448,7 @@
       <c r="O112" s="34"/>
       <c r="P112" s="240"/>
     </row>
-    <row r="113" spans="1:16" ht="27">
+    <row r="113" spans="1:16" ht="27" hidden="1">
       <c r="A113" s="299">
         <v>111</v>
       </c>
@@ -12411,7 +12466,7 @@
       </c>
       <c r="F113" s="190"/>
       <c r="G113" s="199" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H113" s="200" t="s">
         <v>47</v>
@@ -12419,13 +12474,19 @@
       <c r="I113" s="176"/>
       <c r="J113" s="28"/>
       <c r="K113" s="28"/>
-      <c r="L113" s="200"/>
-      <c r="M113" s="200"/>
-      <c r="N113" s="200"/>
-      <c r="O113" s="34"/>
+      <c r="L113" s="268" t="s">
+        <v>389</v>
+      </c>
+      <c r="M113" s="268"/>
+      <c r="N113" s="268" t="s">
+        <v>579</v>
+      </c>
+      <c r="O113" s="34">
+        <v>42654</v>
+      </c>
       <c r="P113" s="240"/>
     </row>
-    <row r="114" spans="1:16" s="210" customFormat="1" ht="40.5">
+    <row r="114" spans="1:16" s="210" customFormat="1" ht="40.5" hidden="1">
       <c r="A114" s="299">
         <v>112</v>
       </c>
@@ -12443,11 +12504,11 @@
       </c>
       <c r="F114" s="193"/>
       <c r="G114" s="206" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H114" s="207"/>
       <c r="I114" s="224" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J114" s="225"/>
       <c r="K114" s="226">
@@ -12463,7 +12524,7 @@
       </c>
       <c r="P114" s="209"/>
     </row>
-    <row r="115" spans="1:16" s="210" customFormat="1" ht="81">
+    <row r="115" spans="1:16" s="210" customFormat="1" ht="81" hidden="1">
       <c r="A115" s="299">
         <v>113</v>
       </c>
@@ -12481,11 +12542,11 @@
       </c>
       <c r="F115" s="193"/>
       <c r="G115" s="218" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H115" s="207"/>
       <c r="I115" s="224" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J115" s="225"/>
       <c r="K115" s="226">
@@ -12501,7 +12562,7 @@
       </c>
       <c r="P115" s="209"/>
     </row>
-    <row r="116" spans="1:16" ht="40.5">
+    <row r="116" spans="1:16" ht="40.5" hidden="1">
       <c r="A116" s="299">
         <v>114</v>
       </c>
@@ -12519,19 +12580,23 @@
       </c>
       <c r="F116" s="190"/>
       <c r="G116" s="199" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H116" s="200"/>
       <c r="I116" s="246"/>
       <c r="J116" s="244"/>
       <c r="K116" s="245"/>
-      <c r="L116" s="200"/>
-      <c r="M116" s="200"/>
-      <c r="N116" s="200"/>
-      <c r="O116" s="34"/>
+      <c r="L116" s="268" t="s">
+        <v>576</v>
+      </c>
+      <c r="M116" s="268"/>
+      <c r="N116" s="268"/>
+      <c r="O116" s="34">
+        <v>42652</v>
+      </c>
       <c r="P116" s="240"/>
     </row>
-    <row r="117" spans="1:16" s="210" customFormat="1" ht="67.5">
+    <row r="117" spans="1:16" s="210" customFormat="1" ht="67.5" hidden="1">
       <c r="A117" s="299">
         <v>115</v>
       </c>
@@ -12549,11 +12614,11 @@
       </c>
       <c r="F117" s="205"/>
       <c r="G117" s="206" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H117" s="207"/>
       <c r="I117" s="229" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J117" s="208"/>
       <c r="K117" s="204">
@@ -12565,7 +12630,7 @@
       <c r="O117" s="204"/>
       <c r="P117" s="209"/>
     </row>
-    <row r="118" spans="1:16" s="210" customFormat="1" ht="40.5">
+    <row r="118" spans="1:16" s="210" customFormat="1" ht="40.5" hidden="1">
       <c r="A118" s="299">
         <v>116</v>
       </c>
@@ -12583,7 +12648,7 @@
       </c>
       <c r="F118" s="193"/>
       <c r="G118" s="206" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H118" s="207"/>
       <c r="I118" s="229" t="s">
@@ -12598,14 +12663,14 @@
       </c>
       <c r="M118" s="207"/>
       <c r="N118" s="207" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O118" s="204">
         <v>42630</v>
       </c>
       <c r="P118" s="209"/>
     </row>
-    <row r="119" spans="1:16" s="210" customFormat="1" ht="40.5">
+    <row r="119" spans="1:16" s="210" customFormat="1" ht="40.5" hidden="1">
       <c r="A119" s="299">
         <v>117</v>
       </c>
@@ -12623,7 +12688,7 @@
       </c>
       <c r="F119" s="193"/>
       <c r="G119" s="206" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H119" s="207"/>
       <c r="I119" s="229" t="s">
@@ -12638,14 +12703,14 @@
       </c>
       <c r="M119" s="207"/>
       <c r="N119" s="207" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O119" s="204">
         <v>42630</v>
       </c>
       <c r="P119" s="209"/>
     </row>
-    <row r="120" spans="1:16" s="210" customFormat="1" ht="94.5">
+    <row r="120" spans="1:16" s="210" customFormat="1" ht="94.5" hidden="1">
       <c r="A120" s="299">
         <v>118</v>
       </c>
@@ -12663,7 +12728,7 @@
       </c>
       <c r="F120" s="193"/>
       <c r="G120" s="206" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H120" s="207"/>
       <c r="I120" s="229" t="s">
@@ -12683,7 +12748,7 @@
       </c>
       <c r="P120" s="209"/>
     </row>
-    <row r="121" spans="1:16" s="210" customFormat="1" ht="121.5">
+    <row r="121" spans="1:16" s="210" customFormat="1" ht="121.5" hidden="1">
       <c r="A121" s="299">
         <v>119</v>
       </c>
@@ -12701,11 +12766,11 @@
       </c>
       <c r="F121" s="193"/>
       <c r="G121" s="206" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H121" s="207"/>
       <c r="I121" s="229" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J121" s="208"/>
       <c r="K121" s="204">
@@ -12721,7 +12786,7 @@
       </c>
       <c r="P121" s="209"/>
     </row>
-    <row r="122" spans="1:16" s="210" customFormat="1" ht="54">
+    <row r="122" spans="1:16" s="210" customFormat="1" ht="54" hidden="1">
       <c r="A122" s="299">
         <v>120</v>
       </c>
@@ -12739,7 +12804,7 @@
       </c>
       <c r="F122" s="193"/>
       <c r="G122" s="218" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H122" s="207"/>
       <c r="I122" s="229" t="s">
@@ -12750,18 +12815,18 @@
         <v>42632</v>
       </c>
       <c r="L122" s="203" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M122" s="207"/>
       <c r="N122" s="207" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O122" s="204">
         <v>42634</v>
       </c>
       <c r="P122" s="209"/>
     </row>
-    <row r="123" spans="1:16" s="210" customFormat="1" ht="108">
+    <row r="123" spans="1:16" s="210" customFormat="1" ht="108" hidden="1">
       <c r="A123" s="299">
         <v>121</v>
       </c>
@@ -12778,14 +12843,14 @@
         <v>42626</v>
       </c>
       <c r="F123" s="193" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G123" s="206" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H123" s="207"/>
       <c r="I123" s="203" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J123" s="208"/>
       <c r="K123" s="204"/>
@@ -12794,12 +12859,12 @@
       </c>
       <c r="M123" s="207"/>
       <c r="N123" s="207" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O123" s="204"/>
       <c r="P123" s="209"/>
     </row>
-    <row r="124" spans="1:16" s="210" customFormat="1" ht="40.5">
+    <row r="124" spans="1:16" s="210" customFormat="1" ht="40.5" hidden="1">
       <c r="A124" s="299">
         <v>122</v>
       </c>
@@ -12817,11 +12882,11 @@
       </c>
       <c r="F124" s="193"/>
       <c r="G124" s="206" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H124" s="207"/>
       <c r="I124" s="203" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J124" s="208"/>
       <c r="K124" s="204">
@@ -12837,7 +12902,7 @@
       </c>
       <c r="P124" s="209"/>
     </row>
-    <row r="125" spans="1:16" s="210" customFormat="1" ht="40.5">
+    <row r="125" spans="1:16" s="210" customFormat="1" ht="40.5" hidden="1">
       <c r="A125" s="299">
         <v>123</v>
       </c>
@@ -12855,11 +12920,11 @@
       </c>
       <c r="F125" s="193"/>
       <c r="G125" s="206" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H125" s="207"/>
       <c r="I125" s="203" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J125" s="208"/>
       <c r="K125" s="204">
@@ -12875,7 +12940,7 @@
       </c>
       <c r="P125" s="209"/>
     </row>
-    <row r="126" spans="1:16" s="210" customFormat="1" ht="40.5">
+    <row r="126" spans="1:16" s="210" customFormat="1" ht="40.5" hidden="1">
       <c r="A126" s="299">
         <v>124</v>
       </c>
@@ -12893,13 +12958,13 @@
       </c>
       <c r="F126" s="193"/>
       <c r="G126" s="206" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H126" s="207" t="s">
         <v>47</v>
       </c>
       <c r="I126" s="203" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J126" s="208"/>
       <c r="K126" s="204">
@@ -12910,12 +12975,12 @@
       </c>
       <c r="M126" s="207"/>
       <c r="N126" s="207" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O126" s="204"/>
       <c r="P126" s="209"/>
     </row>
-    <row r="127" spans="1:16" s="210" customFormat="1" ht="40.5">
+    <row r="127" spans="1:16" s="210" customFormat="1" ht="40.5" hidden="1">
       <c r="A127" s="299">
         <v>125</v>
       </c>
@@ -12933,13 +12998,13 @@
       </c>
       <c r="F127" s="193"/>
       <c r="G127" s="206" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H127" s="207" t="s">
         <v>47</v>
       </c>
       <c r="I127" s="203" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J127" s="208"/>
       <c r="K127" s="204">
@@ -12955,7 +13020,7 @@
       </c>
       <c r="P127" s="209"/>
     </row>
-    <row r="128" spans="1:16" s="210" customFormat="1" ht="40.5">
+    <row r="128" spans="1:16" s="210" customFormat="1" ht="40.5" hidden="1">
       <c r="A128" s="299">
         <v>126</v>
       </c>
@@ -12973,13 +13038,13 @@
       </c>
       <c r="F128" s="193"/>
       <c r="G128" s="206" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H128" s="207" t="s">
         <v>47</v>
       </c>
       <c r="I128" s="203" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J128" s="208"/>
       <c r="K128" s="204">
@@ -12990,14 +13055,14 @@
       </c>
       <c r="M128" s="207"/>
       <c r="N128" s="207" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O128" s="204">
         <v>42625</v>
       </c>
       <c r="P128" s="209"/>
     </row>
-    <row r="129" spans="1:16" s="210" customFormat="1" ht="27">
+    <row r="129" spans="1:16" s="210" customFormat="1" ht="27" hidden="1">
       <c r="A129" s="299">
         <v>127</v>
       </c>
@@ -13015,13 +13080,13 @@
       </c>
       <c r="F129" s="193"/>
       <c r="G129" s="206" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H129" s="207" t="s">
         <v>47</v>
       </c>
       <c r="I129" s="203" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J129" s="208"/>
       <c r="K129" s="204">
@@ -13032,14 +13097,14 @@
       </c>
       <c r="M129" s="207"/>
       <c r="N129" s="207" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O129" s="204">
         <v>42625</v>
       </c>
       <c r="P129" s="209"/>
     </row>
-    <row r="130" spans="1:16" s="210" customFormat="1" ht="81">
+    <row r="130" spans="1:16" s="210" customFormat="1" ht="81" hidden="1">
       <c r="A130" s="299">
         <v>128</v>
       </c>
@@ -13057,13 +13122,13 @@
       </c>
       <c r="F130" s="193"/>
       <c r="G130" s="206" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H130" s="207" t="s">
         <v>47</v>
       </c>
       <c r="I130" s="203" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J130" s="208"/>
       <c r="K130" s="204">
@@ -13074,14 +13139,14 @@
       </c>
       <c r="M130" s="207"/>
       <c r="N130" s="207" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O130" s="204">
         <v>42625</v>
       </c>
       <c r="P130" s="209"/>
     </row>
-    <row r="131" spans="1:16" s="316" customFormat="1" ht="40.5">
+    <row r="131" spans="1:16" s="316" customFormat="1" ht="40.5" hidden="1">
       <c r="A131" s="272">
         <v>129</v>
       </c>
@@ -13098,16 +13163,16 @@
         <v>42627</v>
       </c>
       <c r="F131" s="302" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G131" s="276" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H131" s="277" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I131" s="273" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J131" s="278"/>
       <c r="K131" s="274">
@@ -13118,14 +13183,14 @@
       </c>
       <c r="M131" s="277"/>
       <c r="N131" s="277" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="O131" s="313">
         <v>42643</v>
       </c>
       <c r="P131" s="315"/>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" hidden="1">
       <c r="A132" s="299">
         <v>130</v>
       </c>
@@ -13143,21 +13208,25 @@
       </c>
       <c r="F132" s="214"/>
       <c r="G132" s="199" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H132" s="200" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I132" s="200"/>
       <c r="J132" s="28"/>
       <c r="K132" s="28"/>
-      <c r="L132" s="200"/>
-      <c r="M132" s="200"/>
-      <c r="N132" s="200"/>
-      <c r="O132" s="34"/>
+      <c r="L132" s="268" t="s">
+        <v>58</v>
+      </c>
+      <c r="M132" s="268"/>
+      <c r="N132" s="268"/>
+      <c r="O132" s="34">
+        <v>42652</v>
+      </c>
       <c r="P132" s="240"/>
     </row>
-    <row r="133" spans="1:16" s="210" customFormat="1" ht="27">
+    <row r="133" spans="1:16" s="210" customFormat="1" ht="27" hidden="1">
       <c r="A133" s="299">
         <v>131</v>
       </c>
@@ -13175,11 +13244,11 @@
       </c>
       <c r="F133" s="193"/>
       <c r="G133" s="206" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H133" s="207"/>
       <c r="I133" s="203" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J133" s="208"/>
       <c r="K133" s="204">
@@ -13190,14 +13259,14 @@
       </c>
       <c r="M133" s="207"/>
       <c r="N133" s="207" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O133" s="204">
         <v>42625</v>
       </c>
       <c r="P133" s="209"/>
     </row>
-    <row r="134" spans="1:16" s="316" customFormat="1" ht="54">
+    <row r="134" spans="1:16" s="316" customFormat="1" ht="54" hidden="1">
       <c r="A134" s="299">
         <v>132</v>
       </c>
@@ -13215,7 +13284,7 @@
       </c>
       <c r="F134" s="302"/>
       <c r="G134" s="276" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H134" s="277"/>
       <c r="I134" s="273" t="s">
@@ -13235,7 +13304,7 @@
       </c>
       <c r="P134" s="315"/>
     </row>
-    <row r="135" spans="1:16" s="316" customFormat="1" ht="40.5">
+    <row r="135" spans="1:16" s="316" customFormat="1" ht="40.5" hidden="1">
       <c r="A135" s="299">
         <v>133</v>
       </c>
@@ -13253,7 +13322,7 @@
       </c>
       <c r="F135" s="302"/>
       <c r="G135" s="276" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H135" s="277"/>
       <c r="I135" s="273" t="s">
@@ -13281,7 +13350,7 @@
         <v>19</v>
       </c>
       <c r="C136" s="200" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D136" s="241">
         <v>42625</v>
@@ -13290,13 +13359,13 @@
         <v>42627</v>
       </c>
       <c r="F136" s="214" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G136" s="290" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H136" s="200" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I136" s="200"/>
       <c r="J136" s="28"/>
@@ -13307,7 +13376,7 @@
       <c r="O136" s="34"/>
       <c r="P136" s="240"/>
     </row>
-    <row r="137" spans="1:16" s="210" customFormat="1" ht="40.5">
+    <row r="137" spans="1:16" s="210" customFormat="1" ht="40.5" hidden="1">
       <c r="A137" s="299">
         <v>135</v>
       </c>
@@ -13325,11 +13394,11 @@
       </c>
       <c r="F137" s="193"/>
       <c r="G137" s="206" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H137" s="207"/>
       <c r="I137" s="203" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J137" s="208"/>
       <c r="K137" s="204">
@@ -13345,7 +13414,7 @@
       </c>
       <c r="P137" s="209"/>
     </row>
-    <row r="138" spans="1:16" s="280" customFormat="1" ht="81">
+    <row r="138" spans="1:16" s="280" customFormat="1" ht="81" hidden="1">
       <c r="A138" s="299">
         <v>136</v>
       </c>
@@ -13363,7 +13432,7 @@
       </c>
       <c r="F138" s="275"/>
       <c r="G138" s="276" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H138" s="277" t="s">
         <v>47</v>
@@ -13380,14 +13449,14 @@
       </c>
       <c r="M138" s="277"/>
       <c r="N138" s="277" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="O138" s="274">
         <v>42642</v>
       </c>
       <c r="P138" s="279"/>
     </row>
-    <row r="139" spans="1:16" s="210" customFormat="1">
+    <row r="139" spans="1:16" s="210" customFormat="1" hidden="1">
       <c r="A139" s="299">
         <v>137</v>
       </c>
@@ -13404,14 +13473,14 @@
         <v>42630</v>
       </c>
       <c r="F139" s="193" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G139" s="206" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H139" s="207"/>
       <c r="I139" s="203" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J139" s="208"/>
       <c r="K139" s="204">
@@ -13422,14 +13491,14 @@
       </c>
       <c r="M139" s="207"/>
       <c r="N139" s="207" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="O139" s="204">
         <v>42630</v>
       </c>
       <c r="P139" s="209"/>
     </row>
-    <row r="140" spans="1:16" s="280" customFormat="1" ht="54">
+    <row r="140" spans="1:16" s="280" customFormat="1" ht="54" hidden="1">
       <c r="A140" s="299">
         <v>138</v>
       </c>
@@ -13447,7 +13516,7 @@
       </c>
       <c r="F140" s="275"/>
       <c r="G140" s="304" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H140" s="277"/>
       <c r="I140" s="273" t="s">
@@ -13462,14 +13531,14 @@
       </c>
       <c r="M140" s="277"/>
       <c r="N140" s="277" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="O140" s="274">
         <v>42641</v>
       </c>
       <c r="P140" s="279"/>
     </row>
-    <row r="141" spans="1:16" s="289" customFormat="1" ht="81">
+    <row r="141" spans="1:16" s="289" customFormat="1" ht="81" hidden="1">
       <c r="A141" s="299">
         <v>139</v>
       </c>
@@ -13486,13 +13555,13 @@
         <v>42630</v>
       </c>
       <c r="F141" s="285" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G141" s="293" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H141" s="287" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I141" s="273" t="s">
         <v>40</v>
@@ -13506,19 +13575,19 @@
       </c>
       <c r="M141" s="287"/>
       <c r="N141" s="287" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="O141" s="284">
         <v>42641</v>
       </c>
       <c r="P141" s="292"/>
     </row>
-    <row r="142" spans="1:16" s="289" customFormat="1" ht="81">
+    <row r="142" spans="1:16" s="289" customFormat="1" ht="81" hidden="1">
       <c r="A142" s="299">
         <v>140</v>
       </c>
       <c r="B142" s="283" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C142" s="283" t="s">
         <v>16</v>
@@ -13531,7 +13600,7 @@
       </c>
       <c r="F142" s="323"/>
       <c r="G142" s="324" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H142" s="326"/>
       <c r="I142" s="283" t="s">
@@ -13549,12 +13618,12 @@
       </c>
       <c r="P142" s="292"/>
     </row>
-    <row r="143" spans="1:16" s="210" customFormat="1">
+    <row r="143" spans="1:16" s="210" customFormat="1" hidden="1">
       <c r="A143" s="299">
         <v>141</v>
       </c>
       <c r="B143" s="203" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C143" s="203" t="s">
         <v>16</v>
@@ -13567,17 +13636,17 @@
       </c>
       <c r="F143" s="231"/>
       <c r="G143" s="232" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I143" s="210" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K143" s="233">
         <v>42634</v>
       </c>
       <c r="P143" s="209"/>
     </row>
-    <row r="144" spans="1:16" s="210" customFormat="1" ht="27">
+    <row r="144" spans="1:16" s="210" customFormat="1" ht="27" hidden="1">
       <c r="A144" s="299">
         <v>142</v>
       </c>
@@ -13595,17 +13664,17 @@
       </c>
       <c r="F144" s="231"/>
       <c r="G144" s="234" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I144" s="210" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K144" s="233">
         <v>42634</v>
       </c>
       <c r="P144" s="209"/>
     </row>
-    <row r="145" spans="1:16" s="210" customFormat="1" ht="27">
+    <row r="145" spans="1:16" s="210" customFormat="1" ht="27" hidden="1">
       <c r="A145" s="299">
         <v>143</v>
       </c>
@@ -13623,17 +13692,17 @@
       </c>
       <c r="F145" s="231"/>
       <c r="G145" s="234" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I145" s="210" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K145" s="233">
         <v>42634</v>
       </c>
       <c r="P145" s="209"/>
     </row>
-    <row r="146" spans="1:16" ht="27">
+    <row r="146" spans="1:16" ht="40.5" hidden="1">
       <c r="A146" s="299">
         <v>144</v>
       </c>
@@ -13650,14 +13719,24 @@
         <v>42633</v>
       </c>
       <c r="F146" s="248" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G146" s="185" t="s">
-        <v>371</v>
+        <v>367</v>
+      </c>
+      <c r="L146" s="261" t="s">
+        <v>576</v>
+      </c>
+      <c r="M146" s="261"/>
+      <c r="N146" s="261" t="s">
+        <v>580</v>
+      </c>
+      <c r="O146" s="249">
+        <v>42652</v>
       </c>
       <c r="P146" s="240"/>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" hidden="1">
       <c r="A147" s="299">
         <v>145</v>
       </c>
@@ -13674,14 +13753,22 @@
         <v>42633</v>
       </c>
       <c r="F147" s="248" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G147" s="297" t="s">
-        <v>372</v>
+        <v>368</v>
+      </c>
+      <c r="L147" s="261" t="s">
+        <v>576</v>
+      </c>
+      <c r="M147" s="261"/>
+      <c r="N147" s="261"/>
+      <c r="O147" s="249">
+        <v>42652</v>
       </c>
       <c r="P147" s="240"/>
     </row>
-    <row r="148" spans="1:16" s="250" customFormat="1" ht="67.5">
+    <row r="148" spans="1:16" s="250" customFormat="1" ht="67.5" hidden="1">
       <c r="A148" s="299">
         <v>146</v>
       </c>
@@ -13698,13 +13785,13 @@
         <v>42633</v>
       </c>
       <c r="F148" s="327" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G148" s="328" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I148" s="289" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K148" s="329">
         <v>42643</v>
@@ -13713,14 +13800,14 @@
         <v>59</v>
       </c>
       <c r="N148" s="250" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O148" s="329">
         <v>42642</v>
       </c>
       <c r="P148" s="251"/>
     </row>
-    <row r="149" spans="1:16" s="289" customFormat="1" ht="27">
+    <row r="149" spans="1:16" s="289" customFormat="1" ht="27" hidden="1">
       <c r="A149" s="346">
         <v>147</v>
       </c>
@@ -13737,29 +13824,29 @@
         <v>42633</v>
       </c>
       <c r="F149" s="327" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G149" s="328" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I149" s="289" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K149" s="325">
         <v>42643</v>
       </c>
       <c r="L149" s="289" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="N149" s="289" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="O149" s="325">
         <v>42641</v>
       </c>
       <c r="P149" s="292"/>
     </row>
-    <row r="150" spans="1:16" ht="40.5">
+    <row r="150" spans="1:16" ht="40.5" hidden="1">
       <c r="A150" s="299">
         <v>148</v>
       </c>
@@ -13776,26 +13863,26 @@
         <v>42633</v>
       </c>
       <c r="F150" s="248" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G150" s="298" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="I150" s="261" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L150" s="186" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="N150" s="186" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="O150" s="249">
         <v>42642</v>
       </c>
       <c r="P150" s="240"/>
     </row>
-    <row r="151" spans="1:16" s="289" customFormat="1">
+    <row r="151" spans="1:16" s="289" customFormat="1" hidden="1">
       <c r="A151" s="299">
         <v>149</v>
       </c>
@@ -13812,16 +13899,16 @@
         <v>42636</v>
       </c>
       <c r="F151" s="301" t="s">
+        <v>232</v>
+      </c>
+      <c r="G151" s="286" t="s">
         <v>234</v>
-      </c>
-      <c r="G151" s="286" t="s">
-        <v>236</v>
       </c>
       <c r="H151" s="287" t="s">
         <v>47</v>
       </c>
       <c r="I151" s="283" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J151" s="288"/>
       <c r="K151" s="284">
@@ -13837,7 +13924,7 @@
       </c>
       <c r="P151" s="292"/>
     </row>
-    <row r="152" spans="1:16" s="250" customFormat="1" ht="27">
+    <row r="152" spans="1:16" s="250" customFormat="1" ht="27" hidden="1">
       <c r="A152" s="299">
         <v>150</v>
       </c>
@@ -13854,16 +13941,16 @@
         <v>42636</v>
       </c>
       <c r="F152" s="301" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G152" s="286" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H152" s="287" t="s">
         <v>47</v>
       </c>
       <c r="I152" s="283" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J152" s="288"/>
       <c r="K152" s="284">
@@ -13874,7 +13961,7 @@
       </c>
       <c r="M152" s="287"/>
       <c r="N152" s="287" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="O152" s="245">
         <v>42643</v>
@@ -13898,13 +13985,13 @@
         <v>42636</v>
       </c>
       <c r="F153" s="214" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G153" s="199" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H153" s="200" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I153" s="200"/>
       <c r="J153" s="28"/>
@@ -13915,7 +14002,7 @@
       <c r="O153" s="34"/>
       <c r="P153" s="240"/>
     </row>
-    <row r="154" spans="1:16" s="250" customFormat="1" ht="27">
+    <row r="154" spans="1:16" s="250" customFormat="1" ht="27" hidden="1">
       <c r="A154" s="299">
         <v>152</v>
       </c>
@@ -13932,16 +14019,16 @@
         <v>42636</v>
       </c>
       <c r="F154" s="301" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G154" s="293" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H154" s="287" t="s">
         <v>47</v>
       </c>
       <c r="I154" s="283" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J154" s="288"/>
       <c r="K154" s="284">
@@ -13952,14 +14039,14 @@
       </c>
       <c r="M154" s="287"/>
       <c r="N154" s="287" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="O154" s="245">
         <v>42643</v>
       </c>
       <c r="P154" s="251"/>
     </row>
-    <row r="155" spans="1:16" s="250" customFormat="1" ht="27">
+    <row r="155" spans="1:16" s="250" customFormat="1" ht="27" hidden="1">
       <c r="A155" s="299">
         <v>153</v>
       </c>
@@ -13976,14 +14063,14 @@
         <v>42636</v>
       </c>
       <c r="F155" s="301" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G155" s="330" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H155" s="287"/>
       <c r="I155" s="283" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J155" s="288"/>
       <c r="K155" s="284">
@@ -13994,14 +14081,14 @@
       </c>
       <c r="M155" s="287"/>
       <c r="N155" s="287" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O155" s="245">
         <v>42643</v>
       </c>
       <c r="P155" s="251"/>
     </row>
-    <row r="156" spans="1:16" s="289" customFormat="1">
+    <row r="156" spans="1:16" s="289" customFormat="1" hidden="1">
       <c r="A156" s="299">
         <v>154</v>
       </c>
@@ -14018,16 +14105,16 @@
         <v>42636</v>
       </c>
       <c r="F156" s="301" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G156" s="293" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H156" s="287" t="s">
         <v>47</v>
       </c>
       <c r="I156" s="283" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J156" s="288"/>
       <c r="K156" s="284">
@@ -14043,7 +14130,7 @@
       </c>
       <c r="P156" s="292"/>
     </row>
-    <row r="157" spans="1:16" s="250" customFormat="1" ht="54">
+    <row r="157" spans="1:16" s="250" customFormat="1" ht="54" hidden="1">
       <c r="A157" s="299">
         <v>155</v>
       </c>
@@ -14060,14 +14147,14 @@
         <v>42636</v>
       </c>
       <c r="F157" s="301" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G157" s="286" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H157" s="287"/>
       <c r="I157" s="283" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J157" s="288"/>
       <c r="K157" s="284">
@@ -14078,14 +14165,14 @@
       </c>
       <c r="M157" s="287"/>
       <c r="N157" s="287" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="O157" s="245">
         <v>42643</v>
       </c>
       <c r="P157" s="251"/>
     </row>
-    <row r="158" spans="1:16" ht="27">
+    <row r="158" spans="1:16" ht="27" hidden="1">
       <c r="A158" s="299">
         <v>156</v>
       </c>
@@ -14102,16 +14189,16 @@
         <v>42636</v>
       </c>
       <c r="F158" s="214" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G158" s="199" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H158" s="200" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I158" s="268" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J158" s="28"/>
       <c r="K158" s="28"/>
@@ -14120,14 +14207,14 @@
       </c>
       <c r="M158" s="200"/>
       <c r="N158" s="200" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="O158" s="34">
         <v>42643</v>
       </c>
       <c r="P158" s="240"/>
     </row>
-    <row r="159" spans="1:16" s="250" customFormat="1" ht="27">
+    <row r="159" spans="1:16" s="250" customFormat="1" ht="27" hidden="1">
       <c r="A159" s="299">
         <v>157</v>
       </c>
@@ -14144,34 +14231,34 @@
         <v>42636</v>
       </c>
       <c r="F159" s="301" t="s">
+        <v>246</v>
+      </c>
+      <c r="G159" s="286" t="s">
         <v>248</v>
-      </c>
-      <c r="G159" s="286" t="s">
-        <v>250</v>
       </c>
       <c r="H159" s="287" t="s">
         <v>47</v>
       </c>
       <c r="I159" s="283" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J159" s="288"/>
       <c r="K159" s="284">
         <v>42643</v>
       </c>
       <c r="L159" s="287" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M159" s="287"/>
       <c r="N159" s="287" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="O159" s="245">
         <v>42643</v>
       </c>
       <c r="P159" s="251"/>
     </row>
-    <row r="160" spans="1:16" s="289" customFormat="1" ht="27">
+    <row r="160" spans="1:16" s="289" customFormat="1" ht="27" hidden="1">
       <c r="A160" s="299">
         <v>158</v>
       </c>
@@ -14188,16 +14275,16 @@
         <v>42636</v>
       </c>
       <c r="F160" s="301" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G160" s="293" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H160" s="287" t="s">
         <v>47</v>
       </c>
       <c r="I160" s="283" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J160" s="288"/>
       <c r="K160" s="284">
@@ -14213,7 +14300,7 @@
       </c>
       <c r="P160" s="292"/>
     </row>
-    <row r="161" spans="1:16" s="289" customFormat="1" ht="27">
+    <row r="161" spans="1:16" s="289" customFormat="1" ht="27" hidden="1">
       <c r="A161" s="299">
         <v>159</v>
       </c>
@@ -14230,14 +14317,14 @@
         <v>42636</v>
       </c>
       <c r="F161" s="301" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G161" s="286" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H161" s="287"/>
       <c r="I161" s="283" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J161" s="288"/>
       <c r="K161" s="284">
@@ -14253,7 +14340,7 @@
       </c>
       <c r="P161" s="292"/>
     </row>
-    <row r="162" spans="1:16" s="289" customFormat="1">
+    <row r="162" spans="1:16" s="289" customFormat="1" hidden="1">
       <c r="A162" s="299">
         <v>160</v>
       </c>
@@ -14270,16 +14357,16 @@
         <v>42636</v>
       </c>
       <c r="F162" s="301" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G162" s="331" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H162" s="287" t="s">
         <v>47</v>
       </c>
       <c r="I162" s="283" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J162" s="288"/>
       <c r="K162" s="284">
@@ -14295,7 +14382,7 @@
       </c>
       <c r="P162" s="292"/>
     </row>
-    <row r="163" spans="1:16" s="250" customFormat="1" ht="27">
+    <row r="163" spans="1:16" s="250" customFormat="1" ht="27" hidden="1">
       <c r="A163" s="299">
         <v>161</v>
       </c>
@@ -14312,34 +14399,34 @@
         <v>42636</v>
       </c>
       <c r="F163" s="301" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G163" s="330" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H163" s="287" t="s">
         <v>47</v>
       </c>
       <c r="I163" s="283" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J163" s="288"/>
       <c r="K163" s="284">
         <v>42643</v>
       </c>
       <c r="L163" s="287" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M163" s="287"/>
       <c r="N163" s="287" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="O163" s="245">
         <v>42643</v>
       </c>
       <c r="P163" s="251"/>
     </row>
-    <row r="164" spans="1:16" ht="27">
+    <row r="164" spans="1:16" ht="27" hidden="1">
       <c r="A164" s="299">
         <v>162</v>
       </c>
@@ -14356,10 +14443,10 @@
         <v>42636</v>
       </c>
       <c r="F164" s="214" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G164" s="303" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H164" s="200" t="s">
         <v>47</v>
@@ -14367,13 +14454,19 @@
       <c r="I164" s="200"/>
       <c r="J164" s="28"/>
       <c r="K164" s="28"/>
-      <c r="L164" s="200"/>
-      <c r="M164" s="200"/>
-      <c r="N164" s="200"/>
-      <c r="O164" s="34"/>
+      <c r="L164" s="268" t="s">
+        <v>58</v>
+      </c>
+      <c r="M164" s="268"/>
+      <c r="N164" s="268" t="s">
+        <v>581</v>
+      </c>
+      <c r="O164" s="34">
+        <v>42653</v>
+      </c>
       <c r="P164" s="240"/>
     </row>
-    <row r="165" spans="1:16" s="280" customFormat="1" ht="27">
+    <row r="165" spans="1:16" s="280" customFormat="1" ht="27" hidden="1">
       <c r="A165" s="272">
         <v>163</v>
       </c>
@@ -14390,14 +14483,14 @@
         <v>42636</v>
       </c>
       <c r="F165" s="302" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G165" s="332" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="H165" s="277"/>
       <c r="I165" s="273" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="J165" s="278"/>
       <c r="K165" s="274">
@@ -14408,14 +14501,14 @@
       </c>
       <c r="M165" s="277"/>
       <c r="N165" s="277" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="O165" s="274">
         <v>42651</v>
       </c>
       <c r="P165" s="279"/>
     </row>
-    <row r="166" spans="1:16" s="316" customFormat="1">
+    <row r="166" spans="1:16" s="316" customFormat="1" hidden="1">
       <c r="A166" s="299">
         <v>164</v>
       </c>
@@ -14432,16 +14525,16 @@
         <v>42636</v>
       </c>
       <c r="F166" s="302" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G166" s="332" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H166" s="277" t="s">
         <v>47</v>
       </c>
       <c r="I166" s="273" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J166" s="278"/>
       <c r="K166" s="274">
@@ -14452,14 +14545,14 @@
       </c>
       <c r="M166" s="277"/>
       <c r="N166" s="277" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="O166" s="313">
         <v>42643</v>
       </c>
       <c r="P166" s="315"/>
     </row>
-    <row r="167" spans="1:16" s="280" customFormat="1" ht="27">
+    <row r="167" spans="1:16" s="280" customFormat="1" ht="27" hidden="1">
       <c r="A167" s="299">
         <v>165</v>
       </c>
@@ -14476,16 +14569,16 @@
         <v>42636</v>
       </c>
       <c r="F167" s="302" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G167" s="332" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H167" s="277" t="s">
         <v>47</v>
       </c>
       <c r="I167" s="273" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J167" s="278"/>
       <c r="K167" s="274">
@@ -14501,7 +14594,7 @@
       </c>
       <c r="P167" s="279"/>
     </row>
-    <row r="168" spans="1:16" s="196" customFormat="1" ht="54">
+    <row r="168" spans="1:16" s="196" customFormat="1" ht="54" hidden="1">
       <c r="A168" s="299">
         <v>166</v>
       </c>
@@ -14518,14 +14611,14 @@
         <v>42636</v>
       </c>
       <c r="F168" s="214" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G168" s="305" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="H168" s="200"/>
       <c r="I168" s="261" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="J168" s="201"/>
       <c r="K168" s="201"/>
@@ -14534,14 +14627,14 @@
       </c>
       <c r="M168" s="200"/>
       <c r="N168" s="200" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="O168" s="198">
         <v>42640</v>
       </c>
       <c r="P168" s="202"/>
     </row>
-    <row r="169" spans="1:16" s="196" customFormat="1" ht="67.5">
+    <row r="169" spans="1:16" s="196" customFormat="1" ht="67.5" hidden="1">
       <c r="A169" s="299">
         <v>167</v>
       </c>
@@ -14558,14 +14651,14 @@
         <v>42636</v>
       </c>
       <c r="F169" s="214" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G169" s="305" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H169" s="200"/>
       <c r="I169" s="261" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="J169" s="201"/>
       <c r="K169" s="201"/>
@@ -14574,14 +14667,14 @@
       </c>
       <c r="M169" s="200"/>
       <c r="N169" s="200" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="O169" s="198">
         <v>42640</v>
       </c>
       <c r="P169" s="202"/>
     </row>
-    <row r="170" spans="1:16" s="289" customFormat="1" ht="27">
+    <row r="170" spans="1:16" s="289" customFormat="1" ht="27" hidden="1">
       <c r="A170" s="299">
         <v>168</v>
       </c>
@@ -14598,16 +14691,16 @@
         <v>42636</v>
       </c>
       <c r="F170" s="301" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G170" s="331" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H170" s="287" t="s">
         <v>47</v>
       </c>
       <c r="I170" s="283" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J170" s="288"/>
       <c r="K170" s="284">
@@ -14623,12 +14716,12 @@
       </c>
       <c r="P170" s="292"/>
     </row>
-    <row r="171" spans="1:16" s="280" customFormat="1" ht="54">
+    <row r="171" spans="1:16" s="280" customFormat="1" ht="54" hidden="1">
       <c r="A171" s="272">
         <v>169</v>
       </c>
       <c r="B171" s="273" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C171" s="273" t="s">
         <v>16</v>
@@ -14640,34 +14733,34 @@
         <v>42636</v>
       </c>
       <c r="F171" s="231" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G171" s="349" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H171" s="277"/>
       <c r="I171" s="280" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="K171" s="233">
         <v>42651</v>
       </c>
       <c r="L171" s="280" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="N171" s="280" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="O171" s="233">
         <v>42640</v>
       </c>
     </row>
-    <row r="172" spans="1:16" s="250" customFormat="1" ht="40.5">
+    <row r="172" spans="1:16" s="250" customFormat="1" ht="40.5" hidden="1">
       <c r="A172" s="299">
         <v>170</v>
       </c>
       <c r="B172" s="287" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C172" s="287" t="s">
         <v>16</v>
@@ -14679,16 +14772,16 @@
         <v>42636</v>
       </c>
       <c r="F172" s="327" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G172" s="333" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H172" s="287" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I172" s="283" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J172" s="288"/>
       <c r="K172" s="284">
@@ -14701,12 +14794,12 @@
         <v>42642</v>
       </c>
     </row>
-    <row r="173" spans="1:16" s="250" customFormat="1" ht="94.5">
+    <row r="173" spans="1:16" s="250" customFormat="1" ht="94.5" hidden="1">
       <c r="A173" s="299">
         <v>171</v>
       </c>
       <c r="B173" s="287" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C173" s="287" t="s">
         <v>16</v>
@@ -14718,16 +14811,16 @@
         <v>42636</v>
       </c>
       <c r="F173" s="327" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G173" s="334" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H173" s="287" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I173" s="283" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J173" s="288"/>
       <c r="K173" s="284">
@@ -14737,18 +14830,18 @@
         <v>59</v>
       </c>
       <c r="N173" s="250" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="O173" s="329">
         <v>42643</v>
       </c>
     </row>
-    <row r="174" spans="1:16" s="289" customFormat="1" ht="27">
+    <row r="174" spans="1:16" s="289" customFormat="1" ht="27" hidden="1">
       <c r="A174" s="299">
         <v>172</v>
       </c>
       <c r="B174" s="283" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C174" s="283" t="s">
         <v>16</v>
@@ -14760,14 +14853,14 @@
         <v>42636</v>
       </c>
       <c r="F174" s="301" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G174" s="333" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H174" s="287"/>
       <c r="I174" s="283" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J174" s="288"/>
       <c r="K174" s="284">
@@ -14780,7 +14873,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="27">
+    <row r="175" spans="1:16" ht="27" hidden="1">
       <c r="A175" s="299">
         <v>173</v>
       </c>
@@ -14797,14 +14890,14 @@
         <v>42641</v>
       </c>
       <c r="F175" s="257" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G175" s="295" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H175" s="254"/>
       <c r="I175" s="260" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J175" s="252"/>
       <c r="K175" s="312"/>
@@ -14814,7 +14907,7 @@
       <c r="O175" s="258"/>
       <c r="P175" s="252"/>
     </row>
-    <row r="176" spans="1:16" s="316" customFormat="1" ht="54">
+    <row r="176" spans="1:16" s="316" customFormat="1" ht="54" hidden="1">
       <c r="A176" s="272">
         <v>174</v>
       </c>
@@ -14831,14 +14924,14 @@
         <v>42645</v>
       </c>
       <c r="F176" s="302" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G176" s="349" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="H176" s="277"/>
       <c r="I176" s="280" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="J176" s="280"/>
       <c r="K176" s="233">
@@ -14849,7 +14942,7 @@
       </c>
       <c r="M176" s="280"/>
       <c r="N176" s="280" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="O176" s="233">
         <v>42651</v>
@@ -14873,30 +14966,24 @@
         <v>42645</v>
       </c>
       <c r="F177" s="300" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G177" s="311" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="H177" s="268"/>
       <c r="I177" s="260" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="J177" s="260"/>
       <c r="K177" s="260"/>
-      <c r="L177" s="264" t="s">
-        <v>535</v>
-      </c>
+      <c r="L177" s="264"/>
       <c r="M177" s="260"/>
-      <c r="N177" s="260" t="s">
-        <v>536</v>
-      </c>
-      <c r="O177" s="312">
-        <v>42651</v>
-      </c>
+      <c r="N177" s="260"/>
+      <c r="O177" s="312"/>
       <c r="P177" s="260"/>
     </row>
-    <row r="178" spans="1:16" s="261" customFormat="1" ht="108">
+    <row r="178" spans="1:16" s="261" customFormat="1" ht="108" hidden="1">
       <c r="A178" s="299">
         <v>176</v>
       </c>
@@ -14913,22 +15000,26 @@
         <v>42645</v>
       </c>
       <c r="F178" s="300" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G178" s="295" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H178" s="268"/>
       <c r="I178" s="260"/>
       <c r="J178" s="260"/>
       <c r="K178" s="260"/>
-      <c r="L178" s="264"/>
+      <c r="L178" s="264" t="s">
+        <v>576</v>
+      </c>
       <c r="M178" s="260"/>
       <c r="N178" s="260"/>
-      <c r="O178" s="312"/>
+      <c r="O178" s="312">
+        <v>42652</v>
+      </c>
       <c r="P178" s="260"/>
     </row>
-    <row r="179" spans="1:16" s="261" customFormat="1" ht="27">
+    <row r="179" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
       <c r="A179" s="299">
         <v>177</v>
       </c>
@@ -14945,22 +15036,26 @@
         <v>42645</v>
       </c>
       <c r="F179" s="300" t="s">
+        <v>513</v>
+      </c>
+      <c r="G179" s="295" t="s">
         <v>517</v>
-      </c>
-      <c r="G179" s="295" t="s">
-        <v>521</v>
       </c>
       <c r="H179" s="268"/>
       <c r="I179" s="260"/>
       <c r="J179" s="260"/>
       <c r="K179" s="260"/>
-      <c r="L179" s="264"/>
+      <c r="L179" s="264" t="s">
+        <v>576</v>
+      </c>
       <c r="M179" s="260"/>
       <c r="N179" s="260"/>
-      <c r="O179" s="312"/>
+      <c r="O179" s="312">
+        <v>42652</v>
+      </c>
       <c r="P179" s="260"/>
     </row>
-    <row r="180" spans="1:16" s="261" customFormat="1" ht="27">
+    <row r="180" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
       <c r="A180" s="299">
         <v>178</v>
       </c>
@@ -14977,22 +15072,26 @@
         <v>42645</v>
       </c>
       <c r="F180" s="300" t="s">
+        <v>514</v>
+      </c>
+      <c r="G180" s="295" t="s">
         <v>518</v>
-      </c>
-      <c r="G180" s="295" t="s">
-        <v>522</v>
       </c>
       <c r="H180" s="268"/>
       <c r="I180" s="260"/>
       <c r="J180" s="260"/>
       <c r="K180" s="260"/>
-      <c r="L180" s="264"/>
+      <c r="L180" s="264" t="s">
+        <v>576</v>
+      </c>
       <c r="M180" s="260"/>
       <c r="N180" s="260"/>
-      <c r="O180" s="312"/>
+      <c r="O180" s="312">
+        <v>42652</v>
+      </c>
       <c r="P180" s="260"/>
     </row>
-    <row r="181" spans="1:16" s="261" customFormat="1" ht="27">
+    <row r="181" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
       <c r="A181" s="299">
         <v>179</v>
       </c>
@@ -15009,22 +15108,26 @@
         <v>42645</v>
       </c>
       <c r="F181" s="300" t="s">
+        <v>515</v>
+      </c>
+      <c r="G181" s="295" t="s">
         <v>519</v>
-      </c>
-      <c r="G181" s="295" t="s">
-        <v>523</v>
       </c>
       <c r="H181" s="268"/>
       <c r="I181" s="260"/>
       <c r="J181" s="260"/>
       <c r="K181" s="260"/>
-      <c r="L181" s="264"/>
+      <c r="L181" s="264" t="s">
+        <v>576</v>
+      </c>
       <c r="M181" s="260"/>
       <c r="N181" s="260"/>
-      <c r="O181" s="312"/>
+      <c r="O181" s="312">
+        <v>42652</v>
+      </c>
       <c r="P181" s="260"/>
     </row>
-    <row r="182" spans="1:16" s="261" customFormat="1" ht="27">
+    <row r="182" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
       <c r="A182" s="299">
         <v>180</v>
       </c>
@@ -15041,22 +15144,26 @@
         <v>42645</v>
       </c>
       <c r="F182" s="300" t="s">
+        <v>516</v>
+      </c>
+      <c r="G182" s="295" t="s">
         <v>520</v>
-      </c>
-      <c r="G182" s="295" t="s">
-        <v>524</v>
       </c>
       <c r="H182" s="268"/>
       <c r="I182" s="260"/>
       <c r="J182" s="260"/>
       <c r="K182" s="260"/>
-      <c r="L182" s="264"/>
+      <c r="L182" s="264" t="s">
+        <v>576</v>
+      </c>
       <c r="M182" s="260"/>
       <c r="N182" s="260"/>
-      <c r="O182" s="312"/>
+      <c r="O182" s="312">
+        <v>42652</v>
+      </c>
       <c r="P182" s="260"/>
     </row>
-    <row r="183" spans="1:16" s="261" customFormat="1" ht="27">
+    <row r="183" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
       <c r="A183" s="299">
         <v>181</v>
       </c>
@@ -15073,22 +15180,28 @@
         <v>42645</v>
       </c>
       <c r="F183" s="300" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G183" s="295" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H183" s="268"/>
       <c r="I183" s="260"/>
       <c r="J183" s="260"/>
       <c r="K183" s="260"/>
-      <c r="L183" s="264"/>
+      <c r="L183" s="264" t="s">
+        <v>576</v>
+      </c>
       <c r="M183" s="260"/>
-      <c r="N183" s="260"/>
-      <c r="O183" s="312"/>
+      <c r="N183" s="260" t="s">
+        <v>582</v>
+      </c>
+      <c r="O183" s="312">
+        <v>42651</v>
+      </c>
       <c r="P183" s="260"/>
     </row>
-    <row r="184" spans="1:16" s="261" customFormat="1" ht="40.5">
+    <row r="184" spans="1:16" s="261" customFormat="1" ht="40.5" hidden="1">
       <c r="A184" s="299">
         <v>182</v>
       </c>
@@ -15105,19 +15218,25 @@
         <v>42645</v>
       </c>
       <c r="F184" s="300" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G184" s="295" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H184" s="268"/>
       <c r="I184" s="260"/>
       <c r="J184" s="260"/>
       <c r="K184" s="260"/>
-      <c r="L184" s="264"/>
+      <c r="L184" s="264" t="s">
+        <v>576</v>
+      </c>
       <c r="M184" s="260"/>
-      <c r="N184" s="260"/>
-      <c r="O184" s="312"/>
+      <c r="N184" s="260" t="s">
+        <v>583</v>
+      </c>
+      <c r="O184" s="312">
+        <v>42651</v>
+      </c>
       <c r="P184" s="260"/>
     </row>
     <row r="185" spans="1:16" s="261" customFormat="1" ht="27">
@@ -15137,10 +15256,10 @@
         <v>42645</v>
       </c>
       <c r="F185" s="300" t="s">
+        <v>410</v>
+      </c>
+      <c r="G185" s="311" t="s">
         <v>414</v>
-      </c>
-      <c r="G185" s="311" t="s">
-        <v>418</v>
       </c>
       <c r="H185" s="268"/>
       <c r="I185" s="260"/>
@@ -15169,10 +15288,10 @@
         <v>42645</v>
       </c>
       <c r="F186" s="300" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G186" s="295" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H186" s="268" t="s">
         <v>47</v>
@@ -15203,10 +15322,10 @@
         <v>42645</v>
       </c>
       <c r="F187" s="300" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G187" s="295" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H187" s="268" t="s">
         <v>47</v>
@@ -15237,10 +15356,10 @@
         <v>42645</v>
       </c>
       <c r="F188" s="300" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G188" s="311" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H188" s="268" t="s">
         <v>47</v>
@@ -15271,10 +15390,10 @@
         <v>42645</v>
       </c>
       <c r="F189" s="300" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G189" s="311" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H189" s="268" t="s">
         <v>47</v>
@@ -15305,10 +15424,10 @@
         <v>42645</v>
       </c>
       <c r="F190" s="300" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G190" s="295" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H190" s="268" t="s">
         <v>47</v>
@@ -15339,10 +15458,10 @@
         <v>42645</v>
       </c>
       <c r="F191" s="300" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G191" s="295" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H191" s="268" t="s">
         <v>47</v>
@@ -15373,10 +15492,10 @@
         <v>42645</v>
       </c>
       <c r="F192" s="300" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G192" s="311" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H192" s="268" t="s">
         <v>47</v>
@@ -15407,10 +15526,10 @@
         <v>42645</v>
       </c>
       <c r="F193" s="300" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G193" s="317" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H193" s="268" t="s">
         <v>47</v>
@@ -15441,10 +15560,10 @@
         <v>42645</v>
       </c>
       <c r="F194" s="300" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G194" s="295" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H194" s="268" t="s">
         <v>47</v>
@@ -15475,10 +15594,10 @@
         <v>42645</v>
       </c>
       <c r="F195" s="300" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G195" s="295" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H195" s="268" t="s">
         <v>47</v>
@@ -15509,10 +15628,10 @@
         <v>42645</v>
       </c>
       <c r="F196" s="300" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G196" s="295" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H196" s="268" t="s">
         <v>47</v>
@@ -15543,10 +15662,10 @@
         <v>42645</v>
       </c>
       <c r="F197" s="300" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G197" s="295" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H197" s="268" t="s">
         <v>47</v>
@@ -15560,7 +15679,7 @@
       <c r="O197" s="312"/>
       <c r="P197" s="260"/>
     </row>
-    <row r="198" spans="1:16" s="316" customFormat="1" ht="54">
+    <row r="198" spans="1:16" s="316" customFormat="1" ht="54" hidden="1">
       <c r="A198" s="272">
         <v>196</v>
       </c>
@@ -15577,27 +15696,27 @@
         <v>42645</v>
       </c>
       <c r="F198" s="302" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G198" s="350" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H198" s="277" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="I198" s="280" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="J198" s="280"/>
       <c r="K198" s="233">
         <v>42651</v>
       </c>
       <c r="L198" s="273" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="M198" s="280"/>
       <c r="N198" s="280" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="O198" s="233">
         <v>42651</v>
@@ -15621,10 +15740,10 @@
         <v>42645</v>
       </c>
       <c r="F199" s="300" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G199" s="295" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H199" s="268" t="s">
         <v>47</v>
@@ -15655,10 +15774,10 @@
         <v>42645</v>
       </c>
       <c r="F200" s="300" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G200" s="295" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H200" s="268" t="s">
         <v>47</v>
@@ -15672,7 +15791,7 @@
       <c r="O200" s="312"/>
       <c r="P200" s="260"/>
     </row>
-    <row r="201" spans="1:16" s="261" customFormat="1">
+    <row r="201" spans="1:16" s="261" customFormat="1" hidden="1">
       <c r="A201" s="299">
         <v>199</v>
       </c>
@@ -15689,10 +15808,10 @@
         <v>42645</v>
       </c>
       <c r="F201" s="300" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G201" s="295" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H201" s="268" t="s">
         <v>47</v>
@@ -15700,13 +15819,19 @@
       <c r="I201" s="260"/>
       <c r="J201" s="260"/>
       <c r="K201" s="260"/>
-      <c r="L201" s="264"/>
+      <c r="L201" s="264" t="s">
+        <v>576</v>
+      </c>
       <c r="M201" s="260"/>
-      <c r="N201" s="260"/>
-      <c r="O201" s="312"/>
+      <c r="N201" s="260" t="s">
+        <v>582</v>
+      </c>
+      <c r="O201" s="312">
+        <v>42651</v>
+      </c>
       <c r="P201" s="260"/>
     </row>
-    <row r="202" spans="1:16" s="316" customFormat="1" ht="27">
+    <row r="202" spans="1:16" s="316" customFormat="1" ht="27" hidden="1">
       <c r="A202" s="272">
         <v>200</v>
       </c>
@@ -15723,32 +15848,32 @@
         <v>42645</v>
       </c>
       <c r="F202" s="302" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G202" s="349" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="H202" s="277"/>
       <c r="I202" s="280" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="J202" s="280"/>
       <c r="K202" s="233">
         <v>42651</v>
       </c>
       <c r="L202" s="273" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M202" s="280"/>
       <c r="N202" s="280" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="O202" s="233">
         <v>42651</v>
       </c>
       <c r="P202" s="280"/>
     </row>
-    <row r="203" spans="1:16" s="316" customFormat="1" ht="27">
+    <row r="203" spans="1:16" s="316" customFormat="1" ht="27" hidden="1">
       <c r="A203" s="272">
         <v>201</v>
       </c>
@@ -15765,16 +15890,16 @@
         <v>42645</v>
       </c>
       <c r="F203" s="302" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G203" s="350" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H203" s="277" t="s">
         <v>47</v>
       </c>
       <c r="I203" s="280" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="J203" s="280"/>
       <c r="K203" s="233">
@@ -15790,7 +15915,7 @@
       </c>
       <c r="P203" s="280"/>
     </row>
-    <row r="204" spans="1:16" s="261" customFormat="1" ht="27">
+    <row r="204" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
       <c r="A204" s="299">
         <v>202</v>
       </c>
@@ -15807,10 +15932,10 @@
         <v>42645</v>
       </c>
       <c r="F204" s="300" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G204" s="295" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H204" s="268" t="s">
         <v>47</v>
@@ -15818,13 +15943,19 @@
       <c r="I204" s="260"/>
       <c r="J204" s="260"/>
       <c r="K204" s="260"/>
-      <c r="L204" s="264"/>
+      <c r="L204" s="264" t="s">
+        <v>576</v>
+      </c>
       <c r="M204" s="260"/>
-      <c r="N204" s="260"/>
-      <c r="O204" s="312"/>
+      <c r="N204" s="260" t="s">
+        <v>584</v>
+      </c>
+      <c r="O204" s="312">
+        <v>42653</v>
+      </c>
       <c r="P204" s="260"/>
     </row>
-    <row r="205" spans="1:16" s="261" customFormat="1">
+    <row r="205" spans="1:16" s="261" customFormat="1" hidden="1">
       <c r="A205" s="299">
         <v>203</v>
       </c>
@@ -15832,7 +15963,7 @@
         <v>19</v>
       </c>
       <c r="C205" s="348" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D205" s="281">
         <v>42643</v>
@@ -15841,10 +15972,10 @@
         <v>42645</v>
       </c>
       <c r="F205" s="300" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G205" s="295" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H205" s="268" t="s">
         <v>47</v>
@@ -15852,13 +15983,17 @@
       <c r="I205" s="260"/>
       <c r="J205" s="260"/>
       <c r="K205" s="260"/>
-      <c r="L205" s="264"/>
+      <c r="L205" s="264" t="s">
+        <v>576</v>
+      </c>
       <c r="M205" s="260"/>
       <c r="N205" s="260"/>
-      <c r="O205" s="312"/>
+      <c r="O205" s="312">
+        <v>42652</v>
+      </c>
       <c r="P205" s="260"/>
     </row>
-    <row r="206" spans="1:16" s="261" customFormat="1" ht="27">
+    <row r="206" spans="1:16" s="261" customFormat="1" ht="27" hidden="1">
       <c r="A206" s="299">
         <v>204</v>
       </c>
@@ -15866,7 +16001,7 @@
         <v>19</v>
       </c>
       <c r="C206" s="348" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D206" s="281">
         <v>42643</v>
@@ -15875,10 +16010,10 @@
         <v>42645</v>
       </c>
       <c r="F206" s="300" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G206" s="295" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H206" s="268" t="s">
         <v>47</v>
@@ -15886,10 +16021,16 @@
       <c r="I206" s="260"/>
       <c r="J206" s="260"/>
       <c r="K206" s="260"/>
-      <c r="L206" s="264"/>
+      <c r="L206" s="264" t="s">
+        <v>585</v>
+      </c>
       <c r="M206" s="260"/>
-      <c r="N206" s="260"/>
-      <c r="O206" s="312"/>
+      <c r="N206" s="260" t="s">
+        <v>586</v>
+      </c>
+      <c r="O206" s="312">
+        <v>42651</v>
+      </c>
       <c r="P206" s="260"/>
     </row>
     <row r="207" spans="1:16" s="261" customFormat="1" ht="40.5">
@@ -15909,10 +16050,10 @@
         <v>42649</v>
       </c>
       <c r="F207" s="300" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G207" s="295" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H207" s="268"/>
       <c r="I207" s="260"/>
@@ -15941,10 +16082,10 @@
         <v>42649</v>
       </c>
       <c r="F208" s="300" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G208" s="311" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H208" s="268" t="s">
         <v>47</v>
@@ -15975,10 +16116,10 @@
         <v>42645</v>
       </c>
       <c r="F209" s="300" t="s">
+        <v>521</v>
+      </c>
+      <c r="G209" s="295" t="s">
         <v>525</v>
-      </c>
-      <c r="G209" s="295" t="s">
-        <v>529</v>
       </c>
       <c r="H209" s="268"/>
       <c r="I209" s="260"/>
@@ -16007,10 +16148,10 @@
         <v>42645</v>
       </c>
       <c r="F210" s="300" t="s">
+        <v>522</v>
+      </c>
+      <c r="G210" s="295" t="s">
         <v>526</v>
-      </c>
-      <c r="G210" s="295" t="s">
-        <v>530</v>
       </c>
       <c r="H210" s="268"/>
       <c r="I210" s="260"/>
@@ -16039,10 +16180,10 @@
         <v>42645</v>
       </c>
       <c r="F211" s="300" t="s">
+        <v>523</v>
+      </c>
+      <c r="G211" s="295" t="s">
         <v>527</v>
-      </c>
-      <c r="G211" s="295" t="s">
-        <v>531</v>
       </c>
       <c r="H211" s="268"/>
       <c r="I211" s="260"/>
@@ -16071,10 +16212,10 @@
         <v>42645</v>
       </c>
       <c r="F212" s="300" t="s">
+        <v>524</v>
+      </c>
+      <c r="G212" s="295" t="s">
         <v>528</v>
-      </c>
-      <c r="G212" s="295" t="s">
-        <v>532</v>
       </c>
       <c r="H212" s="268"/>
       <c r="I212" s="260"/>
@@ -16103,10 +16244,10 @@
         <v>42653</v>
       </c>
       <c r="F213" s="300" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G213" s="295" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H213" s="268" t="s">
         <v>47</v>
@@ -16137,10 +16278,10 @@
         <v>42653</v>
       </c>
       <c r="F214" s="300" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G214" s="295" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H214" s="268"/>
       <c r="I214" s="260"/>
@@ -16169,10 +16310,10 @@
         <v>42653</v>
       </c>
       <c r="F215" s="300" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G215" s="317" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="H215" s="268"/>
       <c r="I215" s="260"/>
@@ -16201,10 +16342,10 @@
         <v>42653</v>
       </c>
       <c r="F216" s="300" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="G216" s="317" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="H216" s="268"/>
       <c r="I216" s="260"/>
@@ -16233,10 +16374,10 @@
         <v>42653</v>
       </c>
       <c r="F217" s="355" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="G217" s="356" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="H217" s="357"/>
       <c r="I217" s="358"/>
@@ -16249,10 +16390,16 @@
       <c r="P217" s="358"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:P212">
+  <autoFilter ref="A2:P217">
     <filterColumn colId="5"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="11"/>
+    <filterColumn colId="8">
+      <filters blank="1">
+        <filter val="返回"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
     <filterColumn colId="14"/>
@@ -16260,12 +16407,12 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I61 I63 I1:I59 I65:I1048576">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L8 L53:L87 L174 L89:L115 L10 L14:L50 L151:L170 L126:L142">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L8 L53:L87 L174 L14:L50 L10 L89:L115 L126:L142 L151:L170">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16320,7 +16467,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="262" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -16587,7 +16734,7 @@
       </c>
       <c r="F10" s="282"/>
       <c r="G10" s="132" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H10" s="167"/>
       <c r="I10" s="166"/>
@@ -16596,7 +16743,7 @@
       <c r="L10" s="166"/>
       <c r="M10" s="167"/>
       <c r="N10" s="167" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O10" s="134">
         <v>42625</v>
@@ -16647,7 +16794,7 @@
       <c r="E13" s="63"/>
       <c r="F13" s="282"/>
       <c r="G13" s="182" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="19"/>
@@ -16667,7 +16814,7 @@
       <c r="E14" s="54"/>
       <c r="F14" s="275"/>
       <c r="G14" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H14" s="56"/>
       <c r="I14" s="52"/>
@@ -16687,7 +16834,7 @@
       <c r="E15" s="21"/>
       <c r="F15" s="266"/>
       <c r="G15" s="182" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="19"/>
@@ -16707,7 +16854,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="266"/>
       <c r="G16" s="182" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="19"/>
@@ -16724,10 +16871,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="264" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C17" s="264" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="265">
         <v>42632</v>
@@ -16736,10 +16883,10 @@
         <v>42634</v>
       </c>
       <c r="F17" s="266" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G17" s="267" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H17" s="268"/>
       <c r="I17" s="264"/>
@@ -16756,10 +16903,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="180" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" s="264" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="134">
         <v>42632</v>
@@ -16768,10 +16915,10 @@
         <v>42634</v>
       </c>
       <c r="F18" s="183" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G18" s="184" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H18" s="167"/>
       <c r="I18" s="180"/>
@@ -17653,7 +17800,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17710,7 +17857,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="262" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -17751,7 +17898,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="136">
         <v>42616</v>
@@ -17761,10 +17908,10 @@
       </c>
       <c r="F3" s="181"/>
       <c r="G3" s="99" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H3" s="128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" s="66"/>
       <c r="J3" s="88"/>
@@ -17782,10 +17929,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="264" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4" s="264" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="265">
         <v>42632</v>
@@ -17794,10 +17941,10 @@
         <v>42641</v>
       </c>
       <c r="F4" s="294" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G4" s="295" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H4" s="268"/>
       <c r="I4" s="264"/>
@@ -18669,7 +18816,7 @@
         <v>60</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -18677,7 +18824,7 @@
         <v>42625</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -18685,7 +18832,7 @@
         <v>42632</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -18714,35 +18861,35 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="102" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3" s="103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="124" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="104" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="126" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="106" t="s">
         <v>31</v>
@@ -18751,30 +18898,30 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="110" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="106" t="s">
         <v>31</v>
@@ -18783,30 +18930,30 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="104" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="106" t="s">
         <v>31</v>
@@ -18815,30 +18962,30 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" s="122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="104" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="106" t="s">
         <v>31</v>
@@ -18847,142 +18994,142 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="107" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="108" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="117" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="109" t="s">
-        <v>98</v>
-      </c>
       <c r="F11" s="123" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="115" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="103" t="s">
-        <v>93</v>
-      </c>
       <c r="F15" s="121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="104" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" s="122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F17" s="122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" s="116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" s="111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" s="109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" s="123" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" s="118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" s="121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="104" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E24" s="106" t="s">
         <v>31</v>
@@ -18991,52 +19138,52 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="107" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="117" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="112" t="s">
-        <v>98</v>
-      </c>
       <c r="F25" s="123" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" s="102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F29" s="121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E30" s="106" t="s">
         <v>31</v>
@@ -19045,74 +19192,74 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="107" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31" s="109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="123" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" s="125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F35" s="119"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="104" t="s">
+      <c r="C36" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="106" t="s">
-        <v>105</v>
-      </c>
       <c r="D36" s="122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F36" s="120"/>
     </row>
     <row r="37" spans="1:6">
       <c r="B37" s="104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="110" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F37" s="120"/>
     </row>
     <row r="38" spans="1:6">
       <c r="B38" s="107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" s="109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38" s="123" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F38" s="120"/>
     </row>
@@ -19139,47 +19286,47 @@
   <sheetData>
     <row r="7" spans="2:2" ht="15.75">
       <c r="B7" s="98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="98" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="98" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/测试单-电子书_txt-word_161010.xlsx
+++ b/测试单-电子书_txt-word_161010.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="590">
   <si>
     <t>编号</t>
   </si>
@@ -5507,6 +5507,17 @@
   </si>
   <si>
     <t>没有复现，放到二级和三级目录可以显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8115,8 +8126,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K136" sqref="K136"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="N216" sqref="N216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8501,7 +8512,9 @@
       <c r="M10" s="200"/>
       <c r="N10" s="200"/>
       <c r="O10" s="34"/>
-      <c r="P10" s="240"/>
+      <c r="P10" s="240" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="11" spans="1:16" s="97" customFormat="1" ht="40.5" hidden="1">
       <c r="A11" s="299">
@@ -11216,7 +11229,9 @@
       <c r="M80" s="200"/>
       <c r="N80" s="200"/>
       <c r="O80" s="34"/>
-      <c r="P80" s="240"/>
+      <c r="P80" s="240" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="81" spans="1:16" s="280" customFormat="1" ht="40.5" hidden="1">
       <c r="A81" s="272">
@@ -11290,7 +11305,9 @@
       <c r="M82" s="200"/>
       <c r="N82" s="200"/>
       <c r="O82" s="34"/>
-      <c r="P82" s="240"/>
+      <c r="P82" s="240" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="83" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
       <c r="A83" s="299">
@@ -12292,7 +12309,9 @@
         <v>203</v>
       </c>
       <c r="O108" s="34"/>
-      <c r="P108" s="240"/>
+      <c r="P108" s="240" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="109" spans="1:16" s="210" customFormat="1" ht="27" hidden="1">
       <c r="A109" s="299">
@@ -12446,7 +12465,9 @@
       <c r="M112" s="200"/>
       <c r="N112" s="200"/>
       <c r="O112" s="34"/>
-      <c r="P112" s="240"/>
+      <c r="P112" s="240" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="113" spans="1:16" ht="27" hidden="1">
       <c r="A113" s="299">
@@ -13374,7 +13395,9 @@
       <c r="M136" s="200"/>
       <c r="N136" s="200"/>
       <c r="O136" s="34"/>
-      <c r="P136" s="240"/>
+      <c r="P136" s="240" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="137" spans="1:16" s="210" customFormat="1" ht="40.5" hidden="1">
       <c r="A137" s="299">
@@ -14000,7 +14023,9 @@
       <c r="M153" s="200"/>
       <c r="N153" s="200"/>
       <c r="O153" s="34"/>
-      <c r="P153" s="240"/>
+      <c r="P153" s="240" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="154" spans="1:16" s="250" customFormat="1" ht="27" hidden="1">
       <c r="A154" s="299">
@@ -14981,7 +15006,9 @@
       <c r="M177" s="260"/>
       <c r="N177" s="260"/>
       <c r="O177" s="312"/>
-      <c r="P177" s="260"/>
+      <c r="P177" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="178" spans="1:16" s="261" customFormat="1" ht="108" hidden="1">
       <c r="A178" s="299">
@@ -15269,7 +15296,9 @@
       <c r="M185" s="260"/>
       <c r="N185" s="260"/>
       <c r="O185" s="312"/>
-      <c r="P185" s="260"/>
+      <c r="P185" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="186" spans="1:16" s="261" customFormat="1">
       <c r="A186" s="299">
@@ -15303,7 +15332,9 @@
       <c r="M186" s="260"/>
       <c r="N186" s="260"/>
       <c r="O186" s="312"/>
-      <c r="P186" s="260"/>
+      <c r="P186" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="187" spans="1:16" s="261" customFormat="1" ht="27">
       <c r="A187" s="299">
@@ -15337,7 +15368,9 @@
       <c r="M187" s="260"/>
       <c r="N187" s="260"/>
       <c r="O187" s="312"/>
-      <c r="P187" s="260"/>
+      <c r="P187" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="188" spans="1:16" s="261" customFormat="1" ht="54">
       <c r="A188" s="299">
@@ -15371,7 +15404,9 @@
       <c r="M188" s="260"/>
       <c r="N188" s="260"/>
       <c r="O188" s="312"/>
-      <c r="P188" s="260"/>
+      <c r="P188" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="189" spans="1:16" s="261" customFormat="1" ht="67.5">
       <c r="A189" s="299">
@@ -15405,7 +15440,9 @@
       <c r="M189" s="260"/>
       <c r="N189" s="260"/>
       <c r="O189" s="312"/>
-      <c r="P189" s="260"/>
+      <c r="P189" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="190" spans="1:16" s="261" customFormat="1" ht="27">
       <c r="A190" s="299">
@@ -15439,7 +15476,9 @@
       <c r="M190" s="260"/>
       <c r="N190" s="260"/>
       <c r="O190" s="312"/>
-      <c r="P190" s="260"/>
+      <c r="P190" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="191" spans="1:16" s="261" customFormat="1" ht="40.5">
       <c r="A191" s="299">
@@ -15473,7 +15512,9 @@
       <c r="M191" s="260"/>
       <c r="N191" s="260"/>
       <c r="O191" s="312"/>
-      <c r="P191" s="260"/>
+      <c r="P191" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="192" spans="1:16" s="261" customFormat="1" ht="27">
       <c r="A192" s="299">
@@ -15507,7 +15548,9 @@
       <c r="M192" s="260"/>
       <c r="N192" s="260"/>
       <c r="O192" s="312"/>
-      <c r="P192" s="260"/>
+      <c r="P192" s="260" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="193" spans="1:16" s="261" customFormat="1" ht="27">
       <c r="A193" s="299">
@@ -15541,7 +15584,9 @@
       <c r="M193" s="260"/>
       <c r="N193" s="260"/>
       <c r="O193" s="312"/>
-      <c r="P193" s="260"/>
+      <c r="P193" s="260" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="194" spans="1:16" s="261" customFormat="1">
       <c r="A194" s="299">
@@ -15575,7 +15620,9 @@
       <c r="M194" s="260"/>
       <c r="N194" s="260"/>
       <c r="O194" s="312"/>
-      <c r="P194" s="260"/>
+      <c r="P194" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="195" spans="1:16" s="261" customFormat="1">
       <c r="A195" s="299">
@@ -15609,7 +15656,9 @@
       <c r="M195" s="260"/>
       <c r="N195" s="260"/>
       <c r="O195" s="312"/>
-      <c r="P195" s="260"/>
+      <c r="P195" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="196" spans="1:16" s="261" customFormat="1">
       <c r="A196" s="299">
@@ -15643,7 +15692,9 @@
       <c r="M196" s="260"/>
       <c r="N196" s="260"/>
       <c r="O196" s="312"/>
-      <c r="P196" s="260"/>
+      <c r="P196" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="197" spans="1:16" s="261" customFormat="1">
       <c r="A197" s="299">
@@ -15677,7 +15728,9 @@
       <c r="M197" s="260"/>
       <c r="N197" s="260"/>
       <c r="O197" s="312"/>
-      <c r="P197" s="260"/>
+      <c r="P197" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="198" spans="1:16" s="316" customFormat="1" ht="54" hidden="1">
       <c r="A198" s="272">
@@ -15755,7 +15808,9 @@
       <c r="M199" s="260"/>
       <c r="N199" s="260"/>
       <c r="O199" s="312"/>
-      <c r="P199" s="260"/>
+      <c r="P199" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="200" spans="1:16" s="261" customFormat="1" ht="40.5">
       <c r="A200" s="299">
@@ -15789,7 +15844,9 @@
       <c r="M200" s="260"/>
       <c r="N200" s="260"/>
       <c r="O200" s="312"/>
-      <c r="P200" s="260"/>
+      <c r="P200" s="260" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="201" spans="1:16" s="261" customFormat="1" hidden="1">
       <c r="A201" s="299">
@@ -16063,7 +16120,9 @@
       <c r="M207" s="260"/>
       <c r="N207" s="260"/>
       <c r="O207" s="312"/>
-      <c r="P207" s="260"/>
+      <c r="P207" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="208" spans="1:16" s="261" customFormat="1" ht="148.5">
       <c r="A208" s="299">
@@ -16097,7 +16156,9 @@
       <c r="M208" s="260"/>
       <c r="N208" s="260"/>
       <c r="O208" s="312"/>
-      <c r="P208" s="260"/>
+      <c r="P208" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="209" spans="1:16" s="261" customFormat="1" ht="27">
       <c r="A209" s="299">
@@ -16129,7 +16190,9 @@
       <c r="M209" s="260"/>
       <c r="N209" s="260"/>
       <c r="O209" s="312"/>
-      <c r="P209" s="260"/>
+      <c r="P209" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="210" spans="1:16" s="261" customFormat="1" ht="27">
       <c r="A210" s="299">
@@ -16161,7 +16224,9 @@
       <c r="M210" s="260"/>
       <c r="N210" s="260"/>
       <c r="O210" s="312"/>
-      <c r="P210" s="260"/>
+      <c r="P210" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="211" spans="1:16" s="261" customFormat="1" ht="27">
       <c r="A211" s="299">
@@ -16193,7 +16258,9 @@
       <c r="M211" s="260"/>
       <c r="N211" s="260"/>
       <c r="O211" s="312"/>
-      <c r="P211" s="260"/>
+      <c r="P211" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="212" spans="1:16" s="261" customFormat="1" ht="27">
       <c r="A212" s="299">
@@ -16225,7 +16292,9 @@
       <c r="M212" s="260"/>
       <c r="N212" s="260"/>
       <c r="O212" s="312"/>
-      <c r="P212" s="260"/>
+      <c r="P212" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="213" spans="1:16" s="261" customFormat="1" ht="27">
       <c r="A213" s="299">
@@ -16259,7 +16328,9 @@
       <c r="M213" s="260"/>
       <c r="N213" s="260"/>
       <c r="O213" s="312"/>
-      <c r="P213" s="260"/>
+      <c r="P213" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="214" spans="1:16" s="261" customFormat="1" ht="27">
       <c r="A214" s="299">
@@ -16291,7 +16362,9 @@
       <c r="M214" s="260"/>
       <c r="N214" s="260"/>
       <c r="O214" s="312"/>
-      <c r="P214" s="260"/>
+      <c r="P214" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="215" spans="1:16" s="261" customFormat="1" ht="27">
       <c r="A215" s="299">
@@ -16323,7 +16396,9 @@
       <c r="M215" s="260"/>
       <c r="N215" s="260"/>
       <c r="O215" s="312"/>
-      <c r="P215" s="260"/>
+      <c r="P215" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="216" spans="1:16" s="261" customFormat="1" ht="27">
       <c r="A216" s="299">
@@ -16355,7 +16430,9 @@
       <c r="M216" s="260"/>
       <c r="N216" s="260"/>
       <c r="O216" s="312"/>
-      <c r="P216" s="260"/>
+      <c r="P216" s="260" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="217" spans="1:16" s="360" customFormat="1" ht="27">
       <c r="A217" s="351">
@@ -16387,13 +16464,15 @@
       <c r="M217" s="358"/>
       <c r="N217" s="358"/>
       <c r="O217" s="359"/>
-      <c r="P217" s="358"/>
+      <c r="P217" s="358" t="s">
+        <v>589</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:P217">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_161010.xlsx
+++ b/测试单-电子书_txt-word_161010.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="592">
   <si>
     <t>编号</t>
   </si>
@@ -5518,6 +5518,14 @@
   </si>
   <si>
     <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8126,8 +8134,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="N216" sqref="N216"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="N190" sqref="N190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8144,7 +8152,8 @@
     <col min="10" max="10" width="7" style="186" customWidth="1"/>
     <col min="11" max="13" width="9" style="186"/>
     <col min="14" max="14" width="23.75" style="186" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="186"/>
+    <col min="15" max="15" width="9.25" style="186" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="186"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1">
@@ -15580,10 +15589,16 @@
       <c r="I193" s="260"/>
       <c r="J193" s="260"/>
       <c r="K193" s="260"/>
-      <c r="L193" s="264"/>
+      <c r="L193" s="264" t="s">
+        <v>590</v>
+      </c>
       <c r="M193" s="260"/>
-      <c r="N193" s="260"/>
-      <c r="O193" s="312"/>
+      <c r="N193" s="260" t="s">
+        <v>591</v>
+      </c>
+      <c r="O193" s="312">
+        <v>42654</v>
+      </c>
       <c r="P193" s="260" t="s">
         <v>588</v>
       </c>

--- a/测试单-电子书_txt-word_161010.xlsx
+++ b/测试单-电子书_txt-word_161010.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="597">
   <si>
     <t>编号</t>
   </si>
@@ -5542,6 +5542,10 @@
   </si>
   <si>
     <t>按照10月8日晚上讨论确定的规格，返回朗读界面只提示页码，不自动恢复朗读。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8141,8 +8145,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M208" sqref="M208"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8496,7 +8500,7 @@
       <c r="O9" s="173"/>
       <c r="P9" s="177"/>
     </row>
-    <row r="10" spans="1:16" s="186" customFormat="1" ht="40.5" hidden="1">
+    <row r="10" spans="1:16" s="186" customFormat="1" ht="40.5">
       <c r="A10" s="298">
         <v>8</v>
       </c>
@@ -11213,7 +11217,7 @@
       </c>
       <c r="P79" s="177"/>
     </row>
-    <row r="80" spans="1:16" s="186" customFormat="1" ht="27" hidden="1">
+    <row r="80" spans="1:16" s="186" customFormat="1" ht="27">
       <c r="A80" s="298">
         <v>78</v>
       </c>
@@ -11291,7 +11295,7 @@
       </c>
       <c r="P81" s="278"/>
     </row>
-    <row r="82" spans="1:16" s="186" customFormat="1" ht="54" hidden="1">
+    <row r="82" spans="1:16" s="186" customFormat="1" ht="54">
       <c r="A82" s="298">
         <v>80</v>
       </c>
@@ -12290,7 +12294,7 @@
       </c>
       <c r="P107" s="208"/>
     </row>
-    <row r="108" spans="1:16" s="186" customFormat="1" ht="40.5" hidden="1">
+    <row r="108" spans="1:16" s="186" customFormat="1" ht="40.5">
       <c r="A108" s="298">
         <v>106</v>
       </c>
@@ -14011,7 +14015,7 @@
       </c>
       <c r="P152" s="250"/>
     </row>
-    <row r="153" spans="1:16" s="186" customFormat="1" ht="40.5" hidden="1">
+    <row r="153" spans="1:16" s="186" customFormat="1" ht="40.5">
       <c r="A153" s="298">
         <v>151</v>
       </c>
@@ -15318,7 +15322,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" ht="40.5" hidden="1">
       <c r="A186" s="354">
         <v>184</v>
       </c>
@@ -15343,8 +15347,15 @@
       <c r="H186" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="L186" s="267"/>
-      <c r="O186" s="248"/>
+      <c r="L186" s="267" t="s">
+        <v>59</v>
+      </c>
+      <c r="N186" s="260" t="s">
+        <v>595</v>
+      </c>
+      <c r="O186" s="248">
+        <v>42654</v>
+      </c>
       <c r="P186" s="260" t="s">
         <v>589</v>
       </c>
@@ -15536,7 +15547,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="27" hidden="1">
+    <row r="192" spans="1:16" ht="27">
       <c r="A192" s="298">
         <v>190</v>
       </c>
@@ -15690,7 +15701,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" hidden="1">
       <c r="A196" s="354">
         <v>194</v>
       </c>
@@ -15715,8 +15726,12 @@
       <c r="H196" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="L196" s="267"/>
-      <c r="O196" s="248"/>
+      <c r="L196" s="267" t="s">
+        <v>596</v>
+      </c>
+      <c r="O196" s="248">
+        <v>42654</v>
+      </c>
       <c r="P196" s="260" t="s">
         <v>589</v>
       </c>
@@ -15834,7 +15849,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="40.5" hidden="1">
+    <row r="200" spans="1:16" ht="40.5">
       <c r="A200" s="298">
         <v>198</v>
       </c>
@@ -16438,18 +16453,18 @@
   </sheetData>
   <autoFilter ref="A2:P217">
     <filterColumn colId="5"/>
-    <filterColumn colId="8"/>
+    <filterColumn colId="8">
+      <filters blank="1">
+        <filter val="返回"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="11">
       <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
     <filterColumn colId="14"/>
-    <filterColumn colId="15">
-      <filters>
-        <filter val="z"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="15"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I61 I63 I1:I59 I65:I1048576">

--- a/测试单-电子书_txt-word_161010.xlsx
+++ b/测试单-电子书_txt-word_161010.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="598">
   <si>
     <t>编号</t>
   </si>
@@ -5546,6 +5546,10 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决最近使用里关于电子书断点记忆的时候同时解决了该问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8145,8 +8149,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11321,9 +11325,13 @@
       <c r="I82" s="199"/>
       <c r="J82" s="28"/>
       <c r="K82" s="28"/>
-      <c r="L82" s="199"/>
+      <c r="L82" s="267" t="s">
+        <v>193</v>
+      </c>
       <c r="M82" s="199"/>
-      <c r="N82" s="199"/>
+      <c r="N82" s="267" t="s">
+        <v>597</v>
+      </c>
       <c r="O82" s="34"/>
       <c r="P82" s="239" t="s">
         <v>588</v>
@@ -16454,7 +16462,7 @@
   <autoFilter ref="A2:P217">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_161010.xlsx
+++ b/测试单-电子书_txt-word_161010.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="606">
   <si>
     <t>编号</t>
   </si>
@@ -5550,6 +5550,38 @@
   </si>
   <si>
     <t>解决最近使用里关于电子书断点记忆的时候同时解决了该问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTS音量都是默认的音量，这个应该是硬件的问题吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能复现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现提示时按键是被后鼎的公共对话框接收了，我这边无法处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因是这样的：在大字体时需要显示6行（包括标题栏），每行高度240/6=40像素。但字体大小不能就设置为40像素，还需要上下留点空行，所以字体的大小比40小，而屏幕宽度为320，除以一个小于40的值不能整除，所以右边留有空隙。现在精调了字体大小/行间距并且将每行文字居中显示，左右两边稍微留点空隙，基本看不出来。（中字体原因也是这样，小字体之所以没问题，因为字体大小为20，正好能整除。）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8150,7 +8182,7 @@
   <dimension ref="A1:P217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N82" sqref="N82"/>
+      <selection activeCell="K208" sqref="K208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11299,7 +11331,7 @@
       </c>
       <c r="P81" s="278"/>
     </row>
-    <row r="82" spans="1:16" s="186" customFormat="1" ht="54">
+    <row r="82" spans="1:16" s="186" customFormat="1" ht="54" hidden="1">
       <c r="A82" s="298">
         <v>80</v>
       </c>
@@ -15826,7 +15858,7 @@
       </c>
       <c r="P198" s="279"/>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" ht="216" hidden="1">
       <c r="A199" s="354">
         <v>197</v>
       </c>
@@ -15851,8 +15883,15 @@
       <c r="H199" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="L199" s="267"/>
-      <c r="O199" s="248"/>
+      <c r="L199" s="267" t="s">
+        <v>604</v>
+      </c>
+      <c r="N199" s="260" t="s">
+        <v>605</v>
+      </c>
+      <c r="O199" s="248">
+        <v>42655</v>
+      </c>
       <c r="P199" s="260" t="s">
         <v>589</v>
       </c>
@@ -16135,7 +16174,7 @@
       </c>
       <c r="P206" s="259"/>
     </row>
-    <row r="207" spans="1:16" ht="40.5">
+    <row r="207" spans="1:16" ht="40.5" hidden="1">
       <c r="A207" s="354">
         <v>205</v>
       </c>
@@ -16158,8 +16197,15 @@
         <v>501</v>
       </c>
       <c r="H207" s="267"/>
-      <c r="L207" s="267"/>
-      <c r="O207" s="248"/>
+      <c r="L207" s="267" t="s">
+        <v>598</v>
+      </c>
+      <c r="N207" s="260" t="s">
+        <v>599</v>
+      </c>
+      <c r="O207" s="248">
+        <v>42655</v>
+      </c>
       <c r="P207" s="260" t="s">
         <v>589</v>
       </c>
@@ -16311,7 +16357,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="27">
+    <row r="213" spans="1:16" ht="27" hidden="1">
       <c r="A213" s="354">
         <v>211</v>
       </c>
@@ -16336,8 +16382,15 @@
       <c r="H213" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="L213" s="267"/>
-      <c r="O213" s="248"/>
+      <c r="L213" s="267" t="s">
+        <v>600</v>
+      </c>
+      <c r="N213" s="260" t="s">
+        <v>601</v>
+      </c>
+      <c r="O213" s="248">
+        <v>42655</v>
+      </c>
       <c r="P213" s="260" t="s">
         <v>589</v>
       </c>
@@ -16365,13 +16418,11 @@
         <v>549</v>
       </c>
       <c r="H214" s="267"/>
-      <c r="L214" s="267"/>
-      <c r="O214" s="248"/>
       <c r="P214" s="260" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="27">
+    <row r="215" spans="1:16" ht="40.5" hidden="1">
       <c r="A215" s="354">
         <v>213</v>
       </c>
@@ -16394,8 +16445,15 @@
         <v>567</v>
       </c>
       <c r="H215" s="267"/>
-      <c r="L215" s="267"/>
-      <c r="O215" s="248"/>
+      <c r="L215" s="267" t="s">
+        <v>602</v>
+      </c>
+      <c r="N215" s="260" t="s">
+        <v>603</v>
+      </c>
+      <c r="O215" s="248">
+        <v>42655</v>
+      </c>
       <c r="P215" s="260" t="s">
         <v>589</v>
       </c>
@@ -16462,7 +16520,7 @@
   <autoFilter ref="A2:P217">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters>
+      <filters blank="1">
         <filter val="返回"/>
       </filters>
     </filterColumn>
@@ -16476,12 +16534,12 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I61 I63 I1:I59 I65:I1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L8 L53:L87 L174 L14:L50 L10 L89:L115 L126:L142 L151:L170">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L8 L151:L170 L126:L142 L89:L115 L10 L14:L50 L174 L53:L87">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17869,7 +17927,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I10)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_txt-word_161010.xlsx
+++ b/测试单-电子书_txt-word_161010.xlsx
@@ -5338,10 +5338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>背景音乐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5582,6 +5578,10 @@
   </si>
   <si>
     <t>原因是这样的：在大字体时需要显示6行（包括标题栏），每行高度240/6=40像素。但字体大小不能就设置为40像素，还需要上下留点空行，所以字体的大小比40小，而屏幕宽度为320，除以一个小于40的值不能整除，所以右边留有空隙。现在精调了字体大小/行间距并且将每行文字居中显示，左右两边稍微留点空隙，基本看不出来。（中字体原因也是这样，小字体之所以没问题，因为字体大小为20，正好能整除。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8145,7 +8145,7 @@
         <v>42651</v>
       </c>
       <c r="F12" s="337" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8182,7 +8182,7 @@
   <dimension ref="A1:P217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K208" sqref="K208"/>
+      <selection activeCell="O177" sqref="O177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8276,13 +8276,13 @@
         <v>224</v>
       </c>
       <c r="G3" s="275" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H3" s="276" t="s">
         <v>47</v>
       </c>
       <c r="I3" s="272" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J3" s="277"/>
       <c r="K3" s="273">
@@ -8569,7 +8569,7 @@
       <c r="N10" s="199"/>
       <c r="O10" s="34"/>
       <c r="P10" s="239" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="97" customFormat="1" ht="40.5" hidden="1">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="M28" s="267"/>
       <c r="N28" s="267" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O28" s="34">
         <v>42652</v>
@@ -10048,7 +10048,7 @@
       </c>
       <c r="M49" s="267"/>
       <c r="N49" s="267" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O49" s="34">
         <v>42654</v>
@@ -11286,7 +11286,7 @@
       <c r="N80" s="199"/>
       <c r="O80" s="34"/>
       <c r="P80" s="239" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="81" spans="1:16" s="279" customFormat="1" ht="40.5" hidden="1">
@@ -11362,11 +11362,11 @@
       </c>
       <c r="M82" s="199"/>
       <c r="N82" s="267" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O82" s="34"/>
       <c r="P82" s="239" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="72" customFormat="1" ht="27" hidden="1">
@@ -11587,11 +11587,11 @@
       </c>
       <c r="H88" s="237"/>
       <c r="L88" s="260" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M88" s="260"/>
       <c r="N88" s="260" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O88" s="248">
         <v>42653</v>
@@ -11897,7 +11897,7 @@
       </c>
       <c r="M96" s="267"/>
       <c r="N96" s="267" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O96" s="34">
         <v>42653</v>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="O108" s="34"/>
       <c r="P108" s="239" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="109" spans="1:16" s="209" customFormat="1" ht="27" hidden="1">
@@ -12527,7 +12527,7 @@
       <c r="N112" s="267"/>
       <c r="O112" s="34"/>
       <c r="P112" s="239" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="113" spans="1:16" s="186" customFormat="1" ht="27" hidden="1">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="M113" s="267"/>
       <c r="N113" s="267" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O113" s="34">
         <v>42654</v>
@@ -12669,7 +12669,7 @@
       <c r="J116" s="243"/>
       <c r="K116" s="244"/>
       <c r="L116" s="267" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M116" s="267"/>
       <c r="N116" s="267"/>
@@ -13457,7 +13457,7 @@
       <c r="N136" s="267"/>
       <c r="O136" s="34"/>
       <c r="P136" s="239" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="137" spans="1:16" s="209" customFormat="1" ht="40.5" hidden="1">
@@ -13810,11 +13810,11 @@
       </c>
       <c r="H146" s="237"/>
       <c r="L146" s="260" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M146" s="260"/>
       <c r="N146" s="260" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O146" s="248">
         <v>42652</v>
@@ -13845,7 +13845,7 @@
       </c>
       <c r="H147" s="237"/>
       <c r="L147" s="260" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M147" s="260"/>
       <c r="N147" s="260"/>
@@ -14088,7 +14088,7 @@
       <c r="N153" s="199"/>
       <c r="O153" s="34"/>
       <c r="P153" s="239" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="154" spans="1:16" s="249" customFormat="1" ht="27" hidden="1">
@@ -14548,7 +14548,7 @@
       </c>
       <c r="M164" s="267"/>
       <c r="N164" s="267" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O164" s="34">
         <v>42653</v>
@@ -15016,11 +15016,11 @@
         <v>417</v>
       </c>
       <c r="G176" s="348" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H176" s="276"/>
       <c r="I176" s="279" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J176" s="279"/>
       <c r="K176" s="232">
@@ -15031,14 +15031,14 @@
       </c>
       <c r="M176" s="279"/>
       <c r="N176" s="279" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="O176" s="232">
         <v>42651</v>
       </c>
       <c r="P176" s="279"/>
     </row>
-    <row r="177" spans="1:16" ht="94.5">
+    <row r="177" spans="1:16" ht="94.5" hidden="1">
       <c r="A177" s="354">
         <v>175</v>
       </c>
@@ -15058,16 +15058,17 @@
         <v>406</v>
       </c>
       <c r="G177" s="310" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H177" s="267"/>
-      <c r="I177" s="260" t="s">
-        <v>555</v>
-      </c>
-      <c r="L177" s="267"/>
-      <c r="O177" s="248"/>
+      <c r="L177" s="267" t="s">
+        <v>605</v>
+      </c>
+      <c r="O177" s="248">
+        <v>42655</v>
+      </c>
       <c r="P177" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="178" spans="1:16" ht="108" hidden="1">
@@ -15097,7 +15098,7 @@
       <c r="J178" s="259"/>
       <c r="K178" s="259"/>
       <c r="L178" s="263" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M178" s="259"/>
       <c r="N178" s="259"/>
@@ -15133,7 +15134,7 @@
       <c r="J179" s="259"/>
       <c r="K179" s="259"/>
       <c r="L179" s="263" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M179" s="259"/>
       <c r="N179" s="259"/>
@@ -15169,7 +15170,7 @@
       <c r="J180" s="259"/>
       <c r="K180" s="259"/>
       <c r="L180" s="263" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M180" s="259"/>
       <c r="N180" s="259"/>
@@ -15205,7 +15206,7 @@
       <c r="J181" s="259"/>
       <c r="K181" s="259"/>
       <c r="L181" s="263" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M181" s="259"/>
       <c r="N181" s="259"/>
@@ -15241,7 +15242,7 @@
       <c r="J182" s="259"/>
       <c r="K182" s="259"/>
       <c r="L182" s="263" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M182" s="259"/>
       <c r="N182" s="259"/>
@@ -15277,11 +15278,11 @@
       <c r="J183" s="259"/>
       <c r="K183" s="259"/>
       <c r="L183" s="263" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M183" s="259"/>
       <c r="N183" s="259" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O183" s="311">
         <v>42651</v>
@@ -15315,11 +15316,11 @@
       <c r="J184" s="259"/>
       <c r="K184" s="259"/>
       <c r="L184" s="263" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M184" s="259"/>
       <c r="N184" s="259" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O184" s="311">
         <v>42651</v>
@@ -15350,16 +15351,16 @@
       </c>
       <c r="H185" s="267"/>
       <c r="L185" s="267" t="s">
+        <v>591</v>
+      </c>
+      <c r="N185" s="260" t="s">
         <v>592</v>
-      </c>
-      <c r="N185" s="260" t="s">
-        <v>593</v>
       </c>
       <c r="O185" s="248">
         <v>42654</v>
       </c>
       <c r="P185" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="186" spans="1:16" ht="40.5" hidden="1">
@@ -15391,13 +15392,13 @@
         <v>59</v>
       </c>
       <c r="N186" s="260" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O186" s="248">
         <v>42654</v>
       </c>
       <c r="P186" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="187" spans="1:16" ht="27" hidden="1">
@@ -15426,13 +15427,13 @@
         <v>47</v>
       </c>
       <c r="L187" s="267" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O187" s="248">
         <v>42654</v>
       </c>
       <c r="P187" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="188" spans="1:16" ht="54" hidden="1">
@@ -15461,16 +15462,16 @@
         <v>47</v>
       </c>
       <c r="L188" s="267" t="s">
+        <v>593</v>
+      </c>
+      <c r="N188" s="260" t="s">
         <v>594</v>
-      </c>
-      <c r="N188" s="260" t="s">
-        <v>595</v>
       </c>
       <c r="O188" s="248">
         <v>42654</v>
       </c>
       <c r="P188" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="189" spans="1:16" ht="67.5" hidden="1">
@@ -15499,16 +15500,16 @@
         <v>47</v>
       </c>
       <c r="L189" s="267" t="s">
+        <v>593</v>
+      </c>
+      <c r="N189" s="260" t="s">
         <v>594</v>
-      </c>
-      <c r="N189" s="260" t="s">
-        <v>595</v>
       </c>
       <c r="O189" s="248">
         <v>42654</v>
       </c>
       <c r="P189" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="40.5" hidden="1">
@@ -15537,16 +15538,16 @@
         <v>47</v>
       </c>
       <c r="L190" s="267" t="s">
+        <v>593</v>
+      </c>
+      <c r="N190" s="260" t="s">
         <v>594</v>
-      </c>
-      <c r="N190" s="260" t="s">
-        <v>595</v>
       </c>
       <c r="O190" s="248">
         <v>42654</v>
       </c>
       <c r="P190" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="191" spans="1:16" ht="40.5" hidden="1">
@@ -15575,16 +15576,16 @@
         <v>47</v>
       </c>
       <c r="L191" s="267" t="s">
+        <v>593</v>
+      </c>
+      <c r="N191" s="260" t="s">
         <v>594</v>
-      </c>
-      <c r="N191" s="260" t="s">
-        <v>595</v>
       </c>
       <c r="O191" s="248">
         <v>42654</v>
       </c>
       <c r="P191" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="27">
@@ -15620,7 +15621,7 @@
       <c r="N192" s="259"/>
       <c r="O192" s="311"/>
       <c r="P192" s="259" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="193" spans="1:16" ht="27" hidden="1">
@@ -15652,17 +15653,17 @@
       <c r="J193" s="259"/>
       <c r="K193" s="259"/>
       <c r="L193" s="263" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M193" s="259"/>
       <c r="N193" s="259" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="O193" s="311">
         <v>42654</v>
       </c>
       <c r="P193" s="259" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="40.5" hidden="1">
@@ -15691,16 +15692,16 @@
         <v>47</v>
       </c>
       <c r="L194" s="267" t="s">
+        <v>593</v>
+      </c>
+      <c r="N194" s="260" t="s">
         <v>594</v>
-      </c>
-      <c r="N194" s="260" t="s">
-        <v>595</v>
       </c>
       <c r="O194" s="248">
         <v>42654</v>
       </c>
       <c r="P194" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="195" spans="1:16" ht="40.5" hidden="1">
@@ -15729,16 +15730,16 @@
         <v>47</v>
       </c>
       <c r="L195" s="267" t="s">
+        <v>593</v>
+      </c>
+      <c r="N195" s="260" t="s">
         <v>594</v>
-      </c>
-      <c r="N195" s="260" t="s">
-        <v>595</v>
       </c>
       <c r="O195" s="248">
         <v>42654</v>
       </c>
       <c r="P195" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="196" spans="1:16" hidden="1">
@@ -15767,13 +15768,13 @@
         <v>47</v>
       </c>
       <c r="L196" s="267" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O196" s="248">
         <v>42654</v>
       </c>
       <c r="P196" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="197" spans="1:16" ht="40.5" hidden="1">
@@ -15802,16 +15803,16 @@
         <v>47</v>
       </c>
       <c r="L197" s="267" t="s">
+        <v>593</v>
+      </c>
+      <c r="N197" s="260" t="s">
         <v>594</v>
-      </c>
-      <c r="N197" s="260" t="s">
-        <v>595</v>
       </c>
       <c r="O197" s="248">
         <v>42654</v>
       </c>
       <c r="P197" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="198" spans="1:16" s="315" customFormat="1" ht="54" hidden="1">
@@ -15831,13 +15832,13 @@
         <v>42645</v>
       </c>
       <c r="F198" s="301" t="s">
+        <v>555</v>
+      </c>
+      <c r="G198" s="349" t="s">
         <v>556</v>
       </c>
-      <c r="G198" s="349" t="s">
+      <c r="H198" s="276" t="s">
         <v>557</v>
-      </c>
-      <c r="H198" s="276" t="s">
-        <v>558</v>
       </c>
       <c r="I198" s="279" t="s">
         <v>532</v>
@@ -15851,7 +15852,7 @@
       </c>
       <c r="M198" s="279"/>
       <c r="N198" s="279" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O198" s="232">
         <v>42651</v>
@@ -15884,16 +15885,16 @@
         <v>47</v>
       </c>
       <c r="L199" s="267" t="s">
+        <v>603</v>
+      </c>
+      <c r="N199" s="260" t="s">
         <v>604</v>
-      </c>
-      <c r="N199" s="260" t="s">
-        <v>605</v>
       </c>
       <c r="O199" s="248">
         <v>42655</v>
       </c>
       <c r="P199" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="40.5">
@@ -15929,7 +15930,7 @@
       <c r="N200" s="259"/>
       <c r="O200" s="311"/>
       <c r="P200" s="259" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="201" spans="1:16" hidden="1">
@@ -15961,11 +15962,11 @@
       <c r="J201" s="259"/>
       <c r="K201" s="259"/>
       <c r="L201" s="263" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M201" s="259"/>
       <c r="N201" s="259" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O201" s="311">
         <v>42651</v>
@@ -15992,7 +15993,7 @@
         <v>454</v>
       </c>
       <c r="G202" s="348" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H202" s="276"/>
       <c r="I202" s="279" t="s">
@@ -16007,7 +16008,7 @@
       </c>
       <c r="M202" s="279"/>
       <c r="N202" s="279" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O202" s="232">
         <v>42651</v>
@@ -16040,7 +16041,7 @@
         <v>47</v>
       </c>
       <c r="I203" s="279" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J203" s="279"/>
       <c r="K203" s="232">
@@ -16085,11 +16086,11 @@
       <c r="J204" s="259"/>
       <c r="K204" s="259"/>
       <c r="L204" s="263" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M204" s="259"/>
       <c r="N204" s="259" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O204" s="311">
         <v>42653</v>
@@ -16125,7 +16126,7 @@
       <c r="J205" s="259"/>
       <c r="K205" s="259"/>
       <c r="L205" s="263" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M205" s="259"/>
       <c r="N205" s="259"/>
@@ -16163,11 +16164,11 @@
       <c r="J206" s="259"/>
       <c r="K206" s="259"/>
       <c r="L206" s="263" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M206" s="259"/>
       <c r="N206" s="259" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O206" s="311">
         <v>42651</v>
@@ -16198,16 +16199,16 @@
       </c>
       <c r="H207" s="267"/>
       <c r="L207" s="267" t="s">
+        <v>597</v>
+      </c>
+      <c r="N207" s="260" t="s">
         <v>598</v>
-      </c>
-      <c r="N207" s="260" t="s">
-        <v>599</v>
       </c>
       <c r="O207" s="248">
         <v>42655</v>
       </c>
       <c r="P207" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="148.5">
@@ -16238,7 +16239,7 @@
       <c r="L208" s="267"/>
       <c r="O208" s="248"/>
       <c r="P208" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="27">
@@ -16267,7 +16268,7 @@
       <c r="L209" s="267"/>
       <c r="O209" s="248"/>
       <c r="P209" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="210" spans="1:16" ht="27">
@@ -16296,7 +16297,7 @@
       <c r="L210" s="267"/>
       <c r="O210" s="248"/>
       <c r="P210" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="27">
@@ -16325,7 +16326,7 @@
       <c r="L211" s="267"/>
       <c r="O211" s="248"/>
       <c r="P211" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="27">
@@ -16354,7 +16355,7 @@
       <c r="L212" s="267"/>
       <c r="O212" s="248"/>
       <c r="P212" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="27" hidden="1">
@@ -16383,16 +16384,16 @@
         <v>47</v>
       </c>
       <c r="L213" s="267" t="s">
+        <v>599</v>
+      </c>
+      <c r="N213" s="260" t="s">
         <v>600</v>
-      </c>
-      <c r="N213" s="260" t="s">
-        <v>601</v>
       </c>
       <c r="O213" s="248">
         <v>42655</v>
       </c>
       <c r="P213" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="214" spans="1:16" ht="27">
@@ -16419,7 +16420,7 @@
       </c>
       <c r="H214" s="267"/>
       <c r="P214" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="215" spans="1:16" ht="40.5" hidden="1">
@@ -16439,23 +16440,23 @@
         <v>42653</v>
       </c>
       <c r="F215" s="299" t="s">
+        <v>565</v>
+      </c>
+      <c r="G215" s="316" t="s">
         <v>566</v>
-      </c>
-      <c r="G215" s="316" t="s">
-        <v>567</v>
       </c>
       <c r="H215" s="267"/>
       <c r="L215" s="267" t="s">
+        <v>601</v>
+      </c>
+      <c r="N215" s="260" t="s">
         <v>602</v>
-      </c>
-      <c r="N215" s="260" t="s">
-        <v>603</v>
       </c>
       <c r="O215" s="248">
         <v>42655</v>
       </c>
       <c r="P215" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="216" spans="1:16" ht="27">
@@ -16475,16 +16476,16 @@
         <v>42653</v>
       </c>
       <c r="F216" s="299" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G216" s="316" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H216" s="267"/>
       <c r="L216" s="267"/>
       <c r="O216" s="248"/>
       <c r="P216" s="260" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="217" spans="1:16" s="353" customFormat="1" ht="27">
@@ -16504,23 +16505,23 @@
         <v>42653</v>
       </c>
       <c r="F217" s="350" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G217" s="351" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H217" s="352"/>
       <c r="L217" s="352"/>
       <c r="O217" s="357"/>
       <c r="P217" s="353" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:P217">
     <filterColumn colId="5"/>
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>
@@ -16534,7 +16535,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I61 I63 I1:I59 I65:I1048576">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17927,7 +17928,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
